--- a/images/image_schema_main_v0.1.xlsx
+++ b/images/image_schema_main_v0.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/providen/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D20A2A-4760-B646-BB64-96AA3CE26841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0CABC07-5957-0E44-B34C-6651A95AD65B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31120" yWindow="-2400" windowWidth="33160" windowHeight="21400" xr2:uid="{7BD8D0E6-E1F4-E04F-9790-31602B31B6DB}"/>
+    <workbookView xWindow="36900" yWindow="-2600" windowWidth="33160" windowHeight="21400" activeTab="3" xr2:uid="{7BD8D0E6-E1F4-E04F-9790-31602B31B6DB}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="461">
   <si>
     <t>component_name</t>
   </si>
@@ -2484,9 +2484,9 @@
   </sheetPr>
   <dimension ref="A1:P700"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D84" sqref="D84"/>
+      <selection pane="topRight" activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10250,9 +10250,9 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{61BE55E2-B4C3-4DAC-BD55-739E3A22B89E}">
           <x14:formula1>
-            <xm:f>components!$A$2:$A$100</xm:f>
+            <xm:f>components!$A$2:$A$99</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G49 G86:G1048576 G53:G83</xm:sqref>
+          <xm:sqref>G2:G49 G53:G83 G86:G1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -10429,10 +10429,10 @@
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10469,7 +10469,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="str">
-        <f t="shared" ref="B2:B15" si="0">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(A2, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
+        <f t="shared" ref="B2:B14" si="0">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(A2, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
         <v>Study</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -10487,11 +10487,11 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="B3" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Link</v>
+        <v>Grant Reference</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" t="s">
@@ -10500,11 +10500,11 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B4" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Grant Reference</v>
+        <v>Publication</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" t="s">
@@ -10513,11 +10513,11 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="B5" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Publication</v>
+        <v>Link</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" t="s">
@@ -10526,11 +10526,11 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="B6" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Link</v>
+        <v>Study Component</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" t="s">
@@ -10539,134 +10539,125 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>99</v>
+        <v>426</v>
       </c>
       <c r="B7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Study Component</v>
+        <v>Person</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>426</v>
+        <v>167</v>
       </c>
       <c r="B8" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Person</v>
-      </c>
-      <c r="C8" s="6"/>
+        <v>Sample</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>278</v>
+      </c>
       <c r="D8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>167</v>
+        <v>195</v>
       </c>
       <c r="B9" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Sample</v>
+        <v>Specimen</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="B10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Specimen</v>
+        <v>Image Acquisition</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="B11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Image Acquisition</v>
+        <v>Image Analysis</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="119" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B12" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Image Analysis</v>
+        <v>Image Correlation</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>220</v>
+        <v>107</v>
       </c>
       <c r="B13" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Image Correlation</v>
+        <v>Annotations</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>107</v>
+      <c r="A14" s="4" t="s">
+        <v>237</v>
       </c>
       <c r="B14" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Annotations</v>
+        <v>File Level Metadata</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D14" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="B15" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>File Level Metadata</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="D15" t="s">
-        <v>47</v>
-      </c>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B15" s="2"/>
+      <c r="C15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16" s="2"/>
@@ -10677,7 +10668,6 @@
       <c r="C17" s="6"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B18" s="2"/>
       <c r="C18" s="6"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.2">
@@ -10689,15 +10679,12 @@
     <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C21" s="6"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C22" s="6"/>
-    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D35" xr:uid="{0229C63E-B198-4E4C-A4B9-EB2AED39D8AB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D34" xr:uid="{0229C63E-B198-4E4C-A4B9-EB2AED39D8AB}">
       <formula1>"M,O"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B15" xr:uid="{5AF66364-B773-4BFB-AA10-EDA81C101762}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B14" xr:uid="{5AF66364-B773-4BFB-AA10-EDA81C101762}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/images/image_schema_main_v0.1.xlsx
+++ b/images/image_schema_main_v0.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/providen/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/providen/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0CABC07-5957-0E44-B34C-6651A95AD65B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4472090-4702-D44F-B07A-523EF3BE2DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36900" yWindow="-2600" windowWidth="33160" windowHeight="21400" activeTab="3" xr2:uid="{7BD8D0E6-E1F4-E04F-9790-31602B31B6DB}"/>
+    <workbookView xWindow="35480" yWindow="-2600" windowWidth="33160" windowHeight="21400" xr2:uid="{7BD8D0E6-E1F4-E04F-9790-31602B31B6DB}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -26,8 +26,8 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$O$32</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">regex_to_formula!$A$1:$C$53</definedName>
-    <definedName name="COMPONENT_NAME">data!$A$24:$A$5013</definedName>
-    <definedName name="Z_D34CFE6F_6B19_C846_A6A5_7A3E0DEDB173_.wvu.FilterData" localSheetId="0" hidden="1">data!$A$1:$O$82</definedName>
+    <definedName name="COMPONENT_NAME">data!$A$24:$A$5011</definedName>
+    <definedName name="Z_D34CFE6F_6B19_C846_A6A5_7A3E0DEDB173_.wvu.FilterData" localSheetId="0" hidden="1">data!$A$1:$O$79</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="462">
   <si>
     <t>component_name</t>
   </si>
@@ -726,9 +726,6 @@
   </si>
   <si>
     <t>IMGANL123</t>
-  </si>
-  <si>
-    <t>A unique alphanumeric identifier for the study component.</t>
   </si>
   <si>
     <t>spatial_and_temporal_alignment</t>
@@ -1508,6 +1505,12 @@
   </si>
   <si>
     <t>file001.png</t>
+  </si>
+  <si>
+    <t>Study ID</t>
+  </si>
+  <si>
+    <t>Input must be  at least 25 characters.</t>
   </si>
 </sst>
 </file>
@@ -1600,7 +1603,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1945,12 +1948,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2129,6 +2165,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2157,7 +2208,7 @@
 <file path=xl/namedSheetViews/namedSheetView1.xml><?xml version="1.0" encoding="utf-8"?>
 <namedSheetViews xmlns="http://schemas.microsoft.com/office/spreadsheetml/2019/namedsheetviews" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <namedSheetView name="View1" id="{6954CA39-3A4A-425E-8D74-F55DAFA5B207}">
-    <nsvFilter filterId="{545CA0C1-0282-3A43-9C60-512DE414A571}" ref="A1:O700" tableId="0"/>
+    <nsvFilter filterId="{545CA0C1-0282-3A43-9C60-512DE414A571}" ref="A1:O698" tableId="0"/>
   </namedSheetView>
 </namedSheetViews>
 </file>
@@ -2482,11 +2533,11 @@
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:P700"/>
+  <dimension ref="A1:P698"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D69" sqref="D69"/>
+      <selection pane="topRight" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2622,7 +2673,9 @@
       <c r="J3" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="38"/>
+      <c r="K3" s="43" t="s">
+        <v>461</v>
+      </c>
       <c r="L3" s="38" t="s">
         <v>20</v>
       </c>
@@ -2662,7 +2715,9 @@
       <c r="J4" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="43"/>
+      <c r="K4" s="43" t="s">
+        <v>461</v>
+      </c>
       <c r="L4" s="2" t="s">
         <v>20</v>
       </c>
@@ -3381,7 +3436,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>90</v>
       </c>
@@ -3421,41 +3476,42 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="50" t="s">
+    <row r="24" spans="1:15" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="66" t="s">
         <v>99</v>
       </c>
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="33" t="s">
+      <c r="C24" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="33" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C24, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
-        <v>Study ID</v>
-      </c>
-      <c r="E24" s="33"/>
-      <c r="F24" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="G24" s="34"/>
-      <c r="H24" s="33" t="s">
+      <c r="D24" s="67" t="s">
+        <v>460</v>
+      </c>
+      <c r="E24" s="67"/>
+      <c r="F24" s="68" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="I24" s="33" t="s">
+      <c r="I24" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33" t="s">
+      <c r="J24" s="67"/>
+      <c r="K24" s="67"/>
+      <c r="L24" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="M24" s="33" t="s">
+      <c r="M24" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="N24" s="35"/>
-      <c r="O24" s="54" t="s">
+      <c r="N24" s="69"/>
+      <c r="O24" s="70" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3469,12 +3525,11 @@
       <c r="C25" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D25" s="2" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C25, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
-        <v>Study Component ID</v>
+      <c r="D25" s="2" t="s">
+        <v>196</v>
       </c>
       <c r="F25" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>99</v>
@@ -3509,7 +3564,7 @@
         <v>103</v>
       </c>
       <c r="D26" s="2" t="str">
-        <f t="shared" ref="D26:D83" si="5">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C26, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
+        <f t="shared" ref="D26:D80" si="5">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C26, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
         <v>Name</v>
       </c>
       <c r="F26" s="1" t="b">
@@ -3932,7 +3987,7 @@
     </row>
     <row r="38" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="33" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B38" s="33" t="s">
         <v>16</v>
@@ -3972,13 +4027,13 @@
     </row>
     <row r="39" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D39" s="2" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C39, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
@@ -4008,7 +4063,7 @@
     </row>
     <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>16</v>
@@ -4049,16 +4104,16 @@
     </row>
     <row r="41" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="B41" s="64" t="s">
         <v>426</v>
       </c>
-      <c r="B41" s="64" t="s">
+      <c r="C41" s="64" t="s">
         <v>427</v>
       </c>
-      <c r="C41" s="64" t="s">
-        <v>428</v>
-      </c>
       <c r="D41" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F41" s="1" t="b">
         <v>0</v>
@@ -4088,16 +4143,16 @@
     </row>
     <row r="42" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="B42" s="64" t="s">
         <v>426</v>
       </c>
-      <c r="B42" s="64" t="s">
-        <v>427</v>
-      </c>
       <c r="C42" s="64" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F42" s="1" t="b">
         <v>0</v>
@@ -4127,7 +4182,7 @@
     </row>
     <row r="43" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>23</v>
@@ -4166,7 +4221,7 @@
     </row>
     <row r="44" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>23</v>
@@ -4206,7 +4261,7 @@
     </row>
     <row r="45" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>23</v>
@@ -4243,7 +4298,7 @@
     </row>
     <row r="46" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>23</v>
@@ -4279,7 +4334,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A47" s="33" t="s">
         <v>167</v>
       </c>
@@ -4327,23 +4382,19 @@
         <v>16</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D48" s="2" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C48, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
-        <v>Study Component ID</v>
+        <v>432</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="F48" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>101</v>
+        <v>169</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>102</v>
+        <v>170</v>
       </c>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
@@ -4358,7 +4409,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>167</v>
       </c>
@@ -4369,31 +4420,40 @@
         <v>433</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>168</v>
+        <v>441</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>442</v>
       </c>
       <c r="F49" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>169</v>
+        <v>443</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
+        <v>444</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>445</v>
+      </c>
       <c r="L49" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N49" s="19"/>
-      <c r="O49" s="52" t="s">
+        <v>439</v>
+      </c>
+      <c r="N49" s="59" t="s">
+        <v>171</v>
+      </c>
+      <c r="O49" s="41" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>167</v>
       </c>
@@ -4403,41 +4463,41 @@
       <c r="C50" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>442</v>
+      <c r="D50" s="26" t="s">
+        <v>435</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="F50" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>385</v>
+        <v>436</v>
+      </c>
+      <c r="I50" s="2">
+        <v>8036</v>
+      </c>
+      <c r="J50" s="33" t="s">
+        <v>437</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="L50" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M50" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="N50" s="59" t="s">
         <v>440</v>
       </c>
-      <c r="N50" s="59" t="s">
-        <v>171</v>
-      </c>
-      <c r="O50" s="41" t="s">
+      <c r="O50" s="65" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>167</v>
       </c>
@@ -4445,39 +4505,35 @@
         <v>16</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>435</v>
+        <v>175</v>
       </c>
       <c r="D51" s="26" t="s">
-        <v>436</v>
+        <v>176</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>435</v>
+        <v>175</v>
       </c>
       <c r="F51" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="I51" s="2">
-        <v>8036</v>
-      </c>
-      <c r="J51" s="33" t="s">
-        <v>438</v>
-      </c>
-      <c r="K51" s="2" t="s">
-        <v>439</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
       <c r="L51" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>440</v>
+        <v>179</v>
       </c>
       <c r="N51" s="59" t="s">
-        <v>441</v>
-      </c>
-      <c r="O51" s="65" t="s">
+        <v>180</v>
+      </c>
+      <c r="O51" s="55" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4486,25 +4542,23 @@
         <v>167</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D52" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
+      </c>
+      <c r="D52" s="2" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C52, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
+        <v>Biological Entity</v>
       </c>
       <c r="F52" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
@@ -4512,11 +4566,9 @@
         <v>20</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="N52" s="59" t="s">
-        <v>180</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="N52" s="19"/>
       <c r="O52" s="55" t="s">
         <v>22</v>
       </c>
@@ -4525,62 +4577,65 @@
       <c r="A53" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" t="s">
         <v>23</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>172</v>
+      <c r="C53" t="s">
+        <v>181</v>
       </c>
       <c r="D53" s="2" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C53, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
-        <v>Biological Entity</v>
+        <v>Common Name</v>
       </c>
       <c r="F53" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H53" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2" t="s">
+      <c r="H53" t="s">
+        <v>182</v>
+      </c>
+      <c r="I53" t="s">
+        <v>183</v>
+      </c>
+      <c r="L53" t="s">
         <v>20</v>
       </c>
       <c r="M53" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N53" s="19"/>
-      <c r="O53" s="55" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O53" s="41" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C54" t="s">
-        <v>181</v>
+      <c r="C54" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="D54" s="2" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C54, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
-        <v>Common Name</v>
+        <f t="shared" si="5"/>
+        <v>Description</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>446</v>
       </c>
       <c r="F54" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H54" t="s">
-        <v>182</v>
-      </c>
-      <c r="I54" t="s">
-        <v>183</v>
-      </c>
-      <c r="L54" t="s">
+      <c r="H54" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="I54" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M54" s="2" t="s">
@@ -4591,7 +4646,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>167</v>
       </c>
@@ -4599,23 +4654,20 @@
         <v>23</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>28</v>
+        <v>186</v>
       </c>
       <c r="D55" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>Description</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>447</v>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C55, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
+        <v>Intrinsic Variables</v>
       </c>
       <c r="F55" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="I55" s="53" t="s">
-        <v>185</v>
+        <v>187</v>
+      </c>
+      <c r="I55" t="s">
+        <v>188</v>
       </c>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
@@ -4630,7 +4682,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>167</v>
       </c>
@@ -4638,20 +4690,20 @@
         <v>23</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D56" s="2" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C56, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
-        <v>Intrinsic Variables</v>
+        <v>Extrinsic Variables</v>
       </c>
       <c r="F56" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="I56" t="s">
-        <v>188</v>
+        <v>190</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
@@ -4666,7 +4718,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>167</v>
       </c>
@@ -4674,20 +4726,20 @@
         <v>23</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D57" s="2" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C57, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
-        <v>Extrinsic Variables</v>
+        <f t="shared" si="5"/>
+        <v>Experimental Variables</v>
       </c>
       <c r="F57" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
@@ -4698,83 +4750,86 @@
         <v>21</v>
       </c>
       <c r="N57" s="19"/>
-      <c r="O57" s="41" t="s">
+      <c r="O57" s="52" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D58" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>Experimental Variables</v>
-      </c>
-      <c r="F58" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="J58" s="2"/>
-      <c r="K58" s="2"/>
-      <c r="L58" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M58" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N58" s="19"/>
-      <c r="O58" s="52" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="50" t="s">
+    <row r="58" spans="1:15" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="B59" s="33" t="s">
+      <c r="B58" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C59" s="33" t="s">
+      <c r="C58" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="D59" s="33" t="str">
+      <c r="D58" s="33" t="str">
         <f t="shared" si="5"/>
         <v>Study ID</v>
       </c>
-      <c r="E59" s="33"/>
-      <c r="F59" s="34" t="b">
+      <c r="E58" s="33"/>
+      <c r="F58" s="34" t="b">
         <v>0</v>
       </c>
-      <c r="G59" s="34" t="s">
+      <c r="G58" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="H59" s="33" t="s">
+      <c r="H58" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="I59" s="33" t="s">
+      <c r="I58" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="J59" s="33"/>
-      <c r="K59" s="33"/>
-      <c r="L59" s="33" t="s">
+      <c r="J58" s="33"/>
+      <c r="K58" s="33"/>
+      <c r="L58" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="M59" s="33" t="s">
+      <c r="M58" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="N59" s="35"/>
-      <c r="O59" s="54" t="s">
+      <c r="N58" s="35"/>
+      <c r="O58" s="54" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D59" s="2" t="str">
+        <f t="shared" ref="D59" si="8">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C59, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
+        <v>Specimen ID</v>
+      </c>
+      <c r="F59" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M59" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N59" s="53"/>
+      <c r="O59" s="41" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4786,23 +4841,19 @@
         <v>16</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D60" s="2" t="str">
-        <f t="shared" ref="D60" si="8">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C60, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
-        <v>Specimen ID</v>
+        <v>432</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="F60" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G60" s="1" t="s">
-        <v>195</v>
-      </c>
       <c r="H60" s="2" t="s">
-        <v>205</v>
+        <v>169</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
@@ -4812,12 +4863,12 @@
       <c r="M60" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N60" s="53"/>
-      <c r="O60" s="41" t="s">
+      <c r="N60" s="19"/>
+      <c r="O60" s="52" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>195</v>
       </c>
@@ -4825,19 +4876,22 @@
         <v>16</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>433</v>
+        <v>100</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>168</v>
+        <v>196</v>
       </c>
       <c r="F61" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>169</v>
+        <v>101</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>170</v>
+        <v>102</v>
       </c>
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
@@ -4857,25 +4911,23 @@
         <v>195</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
+      </c>
+      <c r="D62" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Sample Preparation</v>
       </c>
       <c r="F62" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G62" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="H62" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>102</v>
+        <v>198</v>
+      </c>
+      <c r="I62" s="53" t="s">
+        <v>199</v>
       </c>
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
@@ -4886,11 +4938,11 @@
         <v>21</v>
       </c>
       <c r="N62" s="19"/>
-      <c r="O62" s="52" t="s">
+      <c r="O62" s="41" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>195</v>
       </c>
@@ -4898,22 +4950,21 @@
         <v>23</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="D63" s="2" t="str">
+        <v>200</v>
+      </c>
+      <c r="D63" s="58" t="str">
         <f t="shared" si="5"/>
-        <v>Sample Preparation</v>
+        <v>Growth Protocol</v>
       </c>
       <c r="F63" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="I63" s="53" t="s">
-        <v>199</v>
-      </c>
-      <c r="J63" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="I63" s="6" t="s">
+        <v>202</v>
+      </c>
       <c r="K63" s="2"/>
       <c r="L63" s="2" t="s">
         <v>20</v>
@@ -4923,85 +4974,89 @@
       </c>
       <c r="N63" s="19"/>
       <c r="O63" s="41" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A64" s="50" t="s">
+        <v>203</v>
+      </c>
+      <c r="B64" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Study ID</v>
+      </c>
+      <c r="E64" s="33"/>
+      <c r="F64" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="G64" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="H64" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="I64" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="J64" s="33"/>
+      <c r="K64" s="33"/>
+      <c r="L64" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="M64" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="N64" s="51"/>
+      <c r="O64" s="54" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D64" s="58" t="str">
-        <f t="shared" si="5"/>
-        <v>Growth Protocol</v>
-      </c>
-      <c r="F64" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="I64" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="K64" s="2"/>
-      <c r="L64" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M64" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N64" s="19"/>
-      <c r="O64" s="41" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A65" s="50" t="s">
+    <row r="65" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="B65" s="33" t="s">
+      <c r="B65" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C65" s="33" t="s">
-        <v>17</v>
+      <c r="C65" s="2" t="s">
+        <v>204</v>
       </c>
       <c r="D65" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>Study ID</v>
-      </c>
-      <c r="E65" s="33"/>
-      <c r="F65" s="34" t="b">
+        <v>Specimen ID</v>
+      </c>
+      <c r="F65" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G65" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="H65" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="I65" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="J65" s="33"/>
-      <c r="K65" s="33"/>
-      <c r="L65" s="33" t="s">
+      <c r="G65" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M65" s="33" t="s">
+      <c r="M65" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N65" s="51"/>
-      <c r="O65" s="54" t="s">
+      <c r="N65" s="53"/>
+      <c r="O65" s="41" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>203</v>
       </c>
@@ -5009,23 +5064,20 @@
         <v>16</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D66" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>Specimen ID</v>
+        <v>Image Acquisition ID</v>
       </c>
       <c r="F66" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>195</v>
+        <v>1</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
@@ -5035,12 +5087,12 @@
       <c r="M66" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N66" s="53"/>
+      <c r="N66" s="19"/>
       <c r="O66" s="41" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>203</v>
       </c>
@@ -5048,58 +5100,56 @@
         <v>16</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D67" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>Image Acquisition ID</v>
+        <f t="shared" ref="D67" si="9">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C67, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
+        <v>Image Method</v>
       </c>
       <c r="F67" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>209</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="I67" s="2"/>
       <c r="J67" s="2"/>
       <c r="K67" s="2"/>
       <c r="L67" s="2" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N67" s="19"/>
+        <v>212</v>
+      </c>
+      <c r="N67" s="19" t="s">
+        <v>213</v>
+      </c>
       <c r="O67" s="41" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>203</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>196</v>
+        <v>214</v>
+      </c>
+      <c r="D68" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Imaging Instrument</v>
       </c>
       <c r="F68" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G68" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="H68" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="I68" s="2" t="s">
-        <v>102</v>
+        <v>215</v>
+      </c>
+      <c r="I68" s="53" t="s">
+        <v>216</v>
       </c>
       <c r="J68" s="2"/>
       <c r="K68" s="2"/>
@@ -5110,104 +5160,111 @@
         <v>21</v>
       </c>
       <c r="N68" s="19"/>
-      <c r="O68" s="52" t="s">
+      <c r="O68" s="41" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>203</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="D69" s="2" t="str">
-        <f t="shared" ref="D69" si="9">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C69, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
-        <v>Image Method</v>
+        <f t="shared" si="5"/>
+        <v>Image Acquisition Parameters</v>
       </c>
       <c r="F69" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="I69" s="2"/>
+        <v>218</v>
+      </c>
+      <c r="I69" s="53" t="s">
+        <v>219</v>
+      </c>
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
       <c r="L69" s="2" t="s">
-        <v>123</v>
+        <v>20</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="N69" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="O69" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="N69" s="19"/>
+      <c r="O69" s="52" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D70" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>Imaging Instrument</v>
-      </c>
-      <c r="F70" s="1" t="b">
+    <row r="70" spans="1:15" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="50" t="s">
+        <v>222</v>
+      </c>
+      <c r="B70" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C70" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D70" s="33" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C70, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
+        <v>Study ID</v>
+      </c>
+      <c r="E70" s="33"/>
+      <c r="F70" s="34" t="b">
         <v>0</v>
       </c>
-      <c r="H70" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="I70" s="53" t="s">
-        <v>216</v>
-      </c>
-      <c r="J70" s="2"/>
-      <c r="K70" s="2"/>
-      <c r="L70" s="2" t="s">
+      <c r="G70" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="H70" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="I70" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="J70" s="33"/>
+      <c r="K70" s="33"/>
+      <c r="L70" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="M70" s="2" t="s">
+      <c r="M70" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="N70" s="19"/>
-      <c r="O70" s="41" t="s">
+      <c r="N70" s="51"/>
+      <c r="O70" s="36" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D71" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>Image Acquisition Parameters</v>
+        <f t="shared" ref="D71" si="10">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C71, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
+        <v>Image Analysis ID</v>
       </c>
       <c r="F71" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>222</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="I71" s="53" t="s">
-        <v>219</v>
+        <v>223</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>224</v>
       </c>
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
@@ -5217,76 +5274,72 @@
       <c r="M71" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N71" s="19"/>
-      <c r="O71" s="52" t="s">
+      <c r="N71" s="53"/>
+      <c r="O71" s="41" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="50" t="s">
+    <row r="72" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="B72" s="33" t="s">
+      <c r="B72" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C72" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="D72" s="33" t="str">
+      <c r="C72" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D72" s="2" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C72, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
-        <v>Study ID</v>
-      </c>
-      <c r="E72" s="33"/>
-      <c r="F72" s="34" t="b">
+        <v>Study Component ID</v>
+      </c>
+      <c r="F72" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G72" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="H72" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="I72" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="J72" s="33"/>
-      <c r="K72" s="33"/>
-      <c r="L72" s="33" t="s">
+      <c r="G72" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+      <c r="L72" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M72" s="33" t="s">
+      <c r="M72" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N72" s="51"/>
-      <c r="O72" s="36" t="s">
+      <c r="N72" s="19"/>
+      <c r="O72" s="52" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="4" t="s">
+    <row r="73" spans="1:15" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
         <v>222</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="D73" s="2" t="str">
-        <f t="shared" ref="D73" si="10">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C73, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
-        <v>Image Analysis ID</v>
+        <f t="shared" ref="D73" si="11">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C73, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
+        <v>Analysis Overview</v>
       </c>
       <c r="F73" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>222</v>
+        <v>0</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="I73" s="2" t="s">
-        <v>224</v>
+        <v>234</v>
+      </c>
+      <c r="I73" s="53" t="s">
+        <v>235</v>
       </c>
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
@@ -5301,67 +5354,68 @@
         <v>22</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="B74" s="2" t="s">
+    <row r="74" spans="1:15" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="50" t="s">
+        <v>220</v>
+      </c>
+      <c r="B74" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D74" s="2" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C74, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
-        <v>Study Component ID</v>
-      </c>
-      <c r="F74" s="1" t="b">
+      <c r="C74" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D74" s="33" t="str">
+        <f t="shared" si="5"/>
+        <v>Study ID</v>
+      </c>
+      <c r="E74" s="33"/>
+      <c r="F74" s="34" t="b">
         <v>0</v>
       </c>
-      <c r="G74" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="I74" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="J74" s="2"/>
-      <c r="K74" s="2"/>
-      <c r="L74" s="2" t="s">
+      <c r="G74" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="H74" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="I74" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="J74" s="33"/>
+      <c r="K74" s="33"/>
+      <c r="L74" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="M74" s="2" t="s">
+      <c r="M74" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="N74" s="19"/>
-      <c r="O74" s="52" t="s">
+      <c r="N74" s="51"/>
+      <c r="O74" s="54" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
-        <v>222</v>
+    <row r="75" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A75" s="4" t="s">
+        <v>220</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>234</v>
+        <v>447</v>
       </c>
       <c r="D75" s="2" t="str">
-        <f t="shared" ref="D75" si="11">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C75, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
-        <v>Analysis Overview</v>
+        <f t="shared" ref="D75" si="12">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C75, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
+        <v>Image Correlation ID</v>
       </c>
       <c r="F75" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="I75" s="53" t="s">
-        <v>236</v>
+        <v>448</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>449</v>
       </c>
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
@@ -5376,43 +5430,42 @@
         <v>22</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="50" t="s">
+    <row r="76" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A76" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="B76" s="33" t="s">
+      <c r="B76" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C76" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="D76" s="33" t="str">
+      <c r="C76" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D76" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>Study ID</v>
-      </c>
-      <c r="E76" s="33"/>
-      <c r="F76" s="34" t="b">
+        <v>Image Analysis ID</v>
+      </c>
+      <c r="F76" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G76" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="H76" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="I76" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="J76" s="33"/>
-      <c r="K76" s="33"/>
-      <c r="L76" s="33" t="s">
+      <c r="G76" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M76" s="33" t="s">
+      <c r="M76" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N76" s="51"/>
-      <c r="O76" s="54" t="s">
+      <c r="N76" s="53"/>
+      <c r="O76" s="41" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5421,23 +5474,23 @@
         <v>220</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>448</v>
+        <v>225</v>
       </c>
       <c r="D77" s="2" t="str">
-        <f t="shared" ref="D77" si="12">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C77, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
-        <v>Image Correlation ID</v>
+        <f t="shared" si="5"/>
+        <v>Spatial and Temporal Alignment</v>
       </c>
       <c r="F77" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>449</v>
+        <v>226</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>450</v>
+        <v>227</v>
       </c>
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
@@ -5452,32 +5505,27 @@
         <v>22</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>220</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="D78" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>Image Analysis ID</v>
+        <v>Fiducials Used</v>
       </c>
       <c r="F78" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G78" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="I78" s="2" t="s">
-        <v>224</v>
-      </c>
+      <c r="H78" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="I78" s="2"/>
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
       <c r="L78" s="2" t="s">
@@ -5491,31 +5539,26 @@
         <v>22</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>220</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>100</v>
+        <v>23</v>
+      </c>
+      <c r="C79" s="53" t="s">
+        <v>230</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>196</v>
+        <v>231</v>
       </c>
       <c r="F79" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G79" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="H79" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="I79" s="2" t="s">
-        <v>102</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="I79" s="2"/>
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
       <c r="L79" s="2" t="s">
@@ -5524,101 +5567,115 @@
       <c r="M79" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N79" s="19"/>
-      <c r="O79" s="52" t="s">
+      <c r="N79" s="53"/>
+      <c r="O79" s="41" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A80" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="D80" s="2" t="str">
+    <row r="80" spans="1:15" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="50" t="s">
+        <v>236</v>
+      </c>
+      <c r="B80" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C80" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D80" s="33" t="str">
         <f t="shared" si="5"/>
-        <v>Spatial and Temporal Alignment</v>
-      </c>
-      <c r="F80" s="1" t="b">
+        <v>Study ID</v>
+      </c>
+      <c r="E80" s="33"/>
+      <c r="F80" s="34" t="b">
         <v>0</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="J80" s="2"/>
-      <c r="K80" s="2"/>
-      <c r="L80" s="2" t="s">
+      <c r="G80" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="H80" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="I80" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="J80" s="33"/>
+      <c r="K80" s="33"/>
+      <c r="L80" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="M80" s="2" t="s">
+      <c r="M80" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="N80" s="53"/>
-      <c r="O80" s="41" t="s">
+      <c r="N80" s="51"/>
+      <c r="O80" s="54" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="81" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="D81" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>Fiducials Used</v>
+        <v>452</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="F81" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81" s="53" t="s">
-        <v>230</v>
-      </c>
-      <c r="I81" s="2"/>
-      <c r="J81" s="2"/>
-      <c r="K81" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>458</v>
+      </c>
       <c r="L81" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M81" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N81" s="53"/>
-      <c r="O81" s="41" t="s">
+      <c r="N81" s="2"/>
+      <c r="O81" s="55" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="82" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C82" s="53" t="s">
-        <v>231</v>
+        <v>16</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>232</v>
+        <v>196</v>
       </c>
       <c r="F82" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="G82" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="H82" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="I82" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
       <c r="L82" s="2" t="s">
@@ -5627,78 +5684,75 @@
       <c r="M82" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N82" s="53"/>
-      <c r="O82" s="41" t="s">
+      <c r="N82" s="19"/>
+      <c r="O82" s="52" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="83" spans="1:15" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="50" t="s">
-        <v>237</v>
-      </c>
-      <c r="B83" s="33" t="s">
+    <row r="83" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C83" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="D83" s="33" t="str">
-        <f t="shared" si="5"/>
-        <v>Study ID</v>
-      </c>
-      <c r="E83" s="33"/>
-      <c r="F83" s="34" t="b">
+      <c r="C83" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="F83" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G83" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="H83" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="I83" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="J83" s="33"/>
-      <c r="K83" s="33"/>
-      <c r="L83" s="33" t="s">
+      <c r="H83" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="J83" s="2"/>
+      <c r="K83" s="2"/>
+      <c r="L83" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M83" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="N83" s="51"/>
-      <c r="O83" s="54" t="s">
+      <c r="M83" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="N83" s="2"/>
+      <c r="O83" s="55" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="84" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>238</v>
+        <v>108</v>
+      </c>
+      <c r="D84" s="2" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C84, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
+        <v>Annotation ID</v>
       </c>
       <c r="F84" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H84" s="2" t="s">
-        <v>457</v>
+        <v>0</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H84" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="J84" s="2" t="s">
-        <v>288</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="J84" s="2"/>
       <c r="K84" s="2" t="s">
-        <v>459</v>
+        <v>111</v>
       </c>
       <c r="L84" s="2" t="s">
         <v>20</v>
@@ -5706,32 +5760,32 @@
       <c r="M84" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N84" s="2"/>
+      <c r="N84" s="53"/>
       <c r="O84" s="55" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="85" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>454</v>
+        <v>239</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="F85" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>460</v>
+        <v>240</v>
       </c>
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
@@ -5739,42 +5793,39 @@
         <v>20</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="N85" s="2"/>
-      <c r="O85" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="N85" s="53"/>
+      <c r="O85" s="41" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="86" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>108</v>
+        <v>242</v>
       </c>
       <c r="D86" s="2" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C86, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
-        <v>Annotation ID</v>
+        <f t="shared" ref="D86:D141" si="13">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C86, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
+        <v>Transformations</v>
       </c>
       <c r="F86" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G86" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H86" s="6" t="s">
-        <v>109</v>
+      <c r="H86" s="2" t="s">
+        <v>243</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>110</v>
+        <v>244</v>
       </c>
       <c r="J86" s="2"/>
-      <c r="K86" s="2" t="s">
-        <v>111</v>
+      <c r="K86" s="56" t="s">
+        <v>245</v>
       </c>
       <c r="L86" s="2" t="s">
         <v>20</v>
@@ -5783,71 +5834,71 @@
         <v>21</v>
       </c>
       <c r="N86" s="53"/>
-      <c r="O86" s="55" t="s">
-        <v>22</v>
+      <c r="O86" s="41" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="87" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>451</v>
+      <c r="C87" t="s">
+        <v>246</v>
+      </c>
+      <c r="D87" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>Spatial Information</v>
       </c>
       <c r="F87" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H87" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="I87" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="J87" s="2"/>
-      <c r="K87" s="2"/>
+      <c r="H87" t="s">
+        <v>247</v>
+      </c>
+      <c r="I87" t="s">
+        <v>248</v>
+      </c>
       <c r="L87" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M87" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N87" s="53"/>
       <c r="O87" s="41" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
     </row>
     <row r="88" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>243</v>
+      <c r="C88" t="s">
+        <v>249</v>
       </c>
       <c r="D88" s="2" t="str">
-        <f t="shared" ref="D88:D143" si="13">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C88, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
-        <v>Transformations</v>
+        <f t="shared" si="13"/>
+        <v>Annotation Creation Time</v>
       </c>
       <c r="F88" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H88" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="I88" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="J88" s="2"/>
-      <c r="K88" s="56" t="s">
-        <v>246</v>
+      <c r="H88" t="s">
+        <v>250</v>
+      </c>
+      <c r="I88" t="s">
+        <v>251</v>
+      </c>
+      <c r="J88" t="s">
+        <v>252</v>
+      </c>
+      <c r="K88" s="63" t="s">
+        <v>253</v>
       </c>
       <c r="L88" s="2" t="s">
         <v>20</v>
@@ -5855,86 +5906,29 @@
       <c r="M88" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N88" s="53"/>
       <c r="O88" s="41" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="89" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C89" t="s">
-        <v>247</v>
-      </c>
+      <c r="A89" s="4"/>
+      <c r="B89" s="2"/>
       <c r="D89" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>Spatial Information</v>
-      </c>
-      <c r="F89" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89" t="s">
-        <v>248</v>
-      </c>
-      <c r="I89" t="s">
-        <v>249</v>
-      </c>
-      <c r="L89" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M89" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O89" s="41" t="s">
-        <v>47</v>
-      </c>
+        <v/>
+      </c>
+      <c r="H89"/>
     </row>
     <row r="90" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C90" t="s">
-        <v>250</v>
-      </c>
+      <c r="A90" s="4"/>
+      <c r="B90" s="2"/>
       <c r="D90" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>Annotation Creation Time</v>
-      </c>
-      <c r="F90" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90" t="s">
-        <v>251</v>
-      </c>
-      <c r="I90" t="s">
-        <v>252</v>
-      </c>
-      <c r="J90" t="s">
-        <v>253</v>
-      </c>
-      <c r="K90" s="63" t="s">
-        <v>254</v>
-      </c>
-      <c r="L90" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M90" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O90" s="41" t="s">
-        <v>47</v>
-      </c>
+        <v/>
+      </c>
+      <c r="H90"/>
     </row>
     <row r="91" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="4"/>
-      <c r="B91" s="2"/>
       <c r="D91" s="2" t="str">
         <f t="shared" si="13"/>
         <v/>
@@ -5942,8 +5936,6 @@
       <c r="H91"/>
     </row>
     <row r="92" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="4"/>
-      <c r="B92" s="2"/>
       <c r="D92" s="2" t="str">
         <f t="shared" si="13"/>
         <v/>
@@ -6295,21 +6287,21 @@
     </row>
     <row r="142" spans="4:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D142" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="D142:D205" si="14">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C142, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
         <v/>
       </c>
       <c r="H142"/>
     </row>
     <row r="143" spans="4:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D143" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="H143"/>
     </row>
     <row r="144" spans="4:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D144" s="2" t="str">
-        <f t="shared" ref="D144:D207" si="14">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C144, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="H144"/>
@@ -6743,21 +6735,21 @@
     </row>
     <row r="206" spans="4:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D206" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="D206:D269" si="15">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C206, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
         <v/>
       </c>
       <c r="H206"/>
     </row>
     <row r="207" spans="4:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D207" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H207"/>
     </row>
     <row r="208" spans="4:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D208" s="2" t="str">
-        <f t="shared" ref="D208:D271" si="15">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C208, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H208"/>
@@ -7191,21 +7183,21 @@
     </row>
     <row r="270" spans="4:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D270" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="D270:D333" si="16">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C270, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
         <v/>
       </c>
       <c r="H270"/>
     </row>
     <row r="271" spans="4:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D271" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="H271"/>
     </row>
     <row r="272" spans="4:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D272" s="2" t="str">
-        <f t="shared" ref="D272:D335" si="16">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C272, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="H272"/>
@@ -7639,21 +7631,21 @@
     </row>
     <row r="334" spans="4:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D334" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="D334:D397" si="17">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C334, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
         <v/>
       </c>
       <c r="H334"/>
     </row>
     <row r="335" spans="4:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D335" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="H335"/>
     </row>
     <row r="336" spans="4:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D336" s="2" t="str">
-        <f t="shared" ref="D336:D399" si="17">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C336, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="H336"/>
@@ -8087,21 +8079,21 @@
     </row>
     <row r="398" spans="4:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D398" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="D398:D461" si="18">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C398, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
         <v/>
       </c>
       <c r="H398"/>
     </row>
     <row r="399" spans="4:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D399" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="H399"/>
     </row>
     <row r="400" spans="4:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D400" s="2" t="str">
-        <f t="shared" ref="D400:D463" si="18">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C400, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="H400"/>
@@ -8535,21 +8527,21 @@
     </row>
     <row r="462" spans="4:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D462" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="D462:D525" si="19">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C462, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
         <v/>
       </c>
       <c r="H462"/>
     </row>
     <row r="463" spans="4:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D463" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="H463"/>
     </row>
     <row r="464" spans="4:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D464" s="2" t="str">
-        <f t="shared" ref="D464:D527" si="19">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C464, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="H464"/>
@@ -8983,21 +8975,21 @@
     </row>
     <row r="526" spans="4:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D526" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="D526:D589" si="20">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C526, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
         <v/>
       </c>
       <c r="H526"/>
     </row>
     <row r="527" spans="4:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D527" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="H527"/>
     </row>
     <row r="528" spans="4:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D528" s="2" t="str">
-        <f t="shared" ref="D528:D591" si="20">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C528, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="H528"/>
@@ -9431,21 +9423,21 @@
     </row>
     <row r="590" spans="4:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D590" s="2" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="D590:D653" si="21">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C590, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
         <v/>
       </c>
       <c r="H590"/>
     </row>
     <row r="591" spans="4:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D591" s="2" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="H591"/>
     </row>
     <row r="592" spans="4:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D592" s="2" t="str">
-        <f t="shared" ref="D592:D655" si="21">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C592, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="H592"/>
@@ -9879,21 +9871,21 @@
     </row>
     <row r="654" spans="4:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D654" s="2" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="D654:D698" si="22">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C654, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
         <v/>
       </c>
       <c r="H654"/>
     </row>
     <row r="655" spans="4:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D655" s="2" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="H655"/>
     </row>
     <row r="656" spans="4:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D656" s="2" t="str">
-        <f t="shared" ref="D656:D700" si="22">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C656, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="H656"/>
@@ -10192,28 +10184,14 @@
       </c>
       <c r="H698"/>
     </row>
-    <row r="699" spans="4:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D699" s="2" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="H699"/>
-    </row>
-    <row r="700" spans="4:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D700" s="2" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="H700"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:O700" xr:uid="{545CA0C1-0282-3A43-9C60-512DE414A571}"/>
+  <autoFilter ref="A1:O698" xr:uid="{545CA0C1-0282-3A43-9C60-512DE414A571}"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F11:F49 F86:F1048576 F53:F83" xr:uid="{CEA3A6B4-9E1E-4CF7-B7FA-77AD4F6AA7AC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F84:F1048576 F11:F48 F52:F80 F82" xr:uid="{CEA3A6B4-9E1E-4CF7-B7FA-77AD4F6AA7AC}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C10 O51:O52 D2:D49 D53:D1048576" xr:uid="{D3C8CE10-E7EB-B24A-855C-B8189CB5A06C}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O50 O52:O1048576" xr:uid="{9D0E69DF-5FA3-40DF-B082-58904B05C949}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C10 O50:O51 D2:D48 D52:D1048576" xr:uid="{D3C8CE10-E7EB-B24A-855C-B8189CB5A06C}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O49 O51:O1048576" xr:uid="{9D0E69DF-5FA3-40DF-B082-58904B05C949}">
       <formula1>"M,O"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10221,7 +10199,7 @@
     <hyperlink ref="I45" r:id="rId1" xr:uid="{AB8ED804-1E2D-4EF4-B510-D9B18512F692}"/>
     <hyperlink ref="N33" r:id="rId2" xr:uid="{5A51FA1A-51CA-4CF7-8914-5A9CAEE8E97E}"/>
     <hyperlink ref="N32" r:id="rId3" xr:uid="{D5D66972-6276-4E2F-997B-55CBB00C7D44}"/>
-    <hyperlink ref="N69" r:id="rId4" xr:uid="{1BA7EC56-086C-4EC9-BB1D-BAC13C5854FF}"/>
+    <hyperlink ref="N67" r:id="rId4" xr:uid="{1BA7EC56-086C-4EC9-BB1D-BAC13C5854FF}"/>
     <hyperlink ref="N9" r:id="rId5" xr:uid="{93F94D09-36DE-4131-AE3A-7D6B5F94393C}"/>
     <hyperlink ref="N13" r:id="rId6" xr:uid="{C0A012C1-AF6E-42C0-9785-28090D4AC01B}"/>
     <hyperlink ref="I43" r:id="rId7" xr:uid="{92A7E8D7-B0FB-4FEE-B36F-7AB0D5FDD772}"/>
@@ -10240,9 +10218,9 @@
     <hyperlink ref="N15" r:id="rId20" xr:uid="{329CE7B8-0443-4309-9F8F-1CAC99721915}"/>
     <hyperlink ref="N19" r:id="rId21" xr:uid="{AC38D90A-68AB-4B47-A26E-4B8C6ED8E8CA}"/>
     <hyperlink ref="N46" r:id="rId22" location="role" xr:uid="{7B6F42B7-87A3-4EDF-8B38-D9D32A16F033}"/>
-    <hyperlink ref="N51" r:id="rId23" xr:uid="{8A3B41F7-DA1E-F848-A85E-D96217D5FB44}"/>
-    <hyperlink ref="N52" r:id="rId24" xr:uid="{13C9631A-0105-F942-8B12-D40B3489066F}"/>
-    <hyperlink ref="N50" r:id="rId25" xr:uid="{8FDE5258-7DE6-F24B-8296-EA4230387E50}"/>
+    <hyperlink ref="N50" r:id="rId23" xr:uid="{8A3B41F7-DA1E-F848-A85E-D96217D5FB44}"/>
+    <hyperlink ref="N51" r:id="rId24" xr:uid="{13C9631A-0105-F942-8B12-D40B3489066F}"/>
+    <hyperlink ref="N49" r:id="rId25" xr:uid="{8FDE5258-7DE6-F24B-8296-EA4230387E50}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -10252,7 +10230,7 @@
           <x14:formula1>
             <xm:f>components!$A$2:$A$99</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G49 G53:G83 G86:G1048576</xm:sqref>
+          <xm:sqref>G84:G1048576 G2:G48 G52:G80 G82</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -10289,40 +10267,40 @@
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="B2" s="26" t="s">
         <v>255</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>256</v>
       </c>
       <c r="C2"/>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="B3" s="26" t="s">
         <v>257</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="B4" s="26" t="s">
         <v>259</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="B5" s="26" t="s">
         <v>261</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="27" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B6" s="26" t="s">
         <v>122</v>
@@ -10333,32 +10311,32 @@
         <v>44</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="26" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="26" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="26" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="26" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -10390,7 +10368,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>103</v>
@@ -10399,10 +10377,10 @@
         <v>28</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>270</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -10410,10 +10388,10 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C2" t="s">
         <v>272</v>
-      </c>
-      <c r="C2" t="s">
-        <v>273</v>
       </c>
       <c r="D2" t="s">
         <v>23</v>
@@ -10431,7 +10409,7 @@
   </sheetPr>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
@@ -10446,7 +10424,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>103</v>
@@ -10455,13 +10433,13 @@
         <v>28</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>275</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10473,7 +10451,7 @@
         <v>Study</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
@@ -10539,7 +10517,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B7" s="2" t="str">
         <f t="shared" si="0"/>
@@ -10559,7 +10537,7 @@
         <v>Sample</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -10574,7 +10552,7 @@
         <v>Specimen</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -10589,7 +10567,7 @@
         <v>Image Acquisition</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -10604,7 +10582,7 @@
         <v>Image Analysis</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -10619,7 +10597,7 @@
         <v>Image Correlation</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D12" t="s">
         <v>47</v>
@@ -10634,7 +10612,7 @@
         <v>Annotations</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D13" t="s">
         <v>47</v>
@@ -10642,14 +10620,14 @@
     </row>
     <row r="14" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>File Level Metadata</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D14" t="s">
         <v>47</v>
@@ -10709,10 +10687,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -10748,32 +10726,32 @@
         <v>9</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>286</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>289</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="C3" s="11" t="s">
         <v>292</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10781,247 +10759,247 @@
         <v>151</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>294</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="C5" s="11" t="s">
         <v>297</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="C6" s="11" t="s">
         <v>300</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="C7" s="11" t="s">
         <v>303</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>305</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>306</v>
       </c>
       <c r="C8" s="11"/>
     </row>
     <row r="9" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>307</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>308</v>
       </c>
       <c r="C9" s="11"/>
     </row>
     <row r="10" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>309</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>310</v>
       </c>
       <c r="C10" s="11"/>
     </row>
     <row r="11" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="C11" s="11" t="s">
         <v>312</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>314</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>315</v>
       </c>
       <c r="C12" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="C13" s="11" t="s">
         <v>317</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="C14" s="11" t="s">
         <v>320</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="C15" s="11" t="s">
         <v>323</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="C16" s="11" t="s">
         <v>326</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="C17" s="11" t="s">
         <v>329</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="C18" s="11" t="s">
         <v>332</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="B19" s="10" t="s">
         <v>334</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>335</v>
       </c>
       <c r="C19" s="11"/>
     </row>
     <row r="20" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="B20" s="10" t="s">
         <v>336</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>337</v>
       </c>
       <c r="C20" s="11"/>
     </row>
     <row r="21" spans="1:3" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="B21" s="10" t="s">
         <v>338</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>339</v>
       </c>
       <c r="C21" s="11"/>
     </row>
     <row r="22" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>340</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>341</v>
       </c>
       <c r="C22" s="11"/>
     </row>
     <row r="23" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="C23" s="11" t="s">
         <v>343</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="B24" s="10" t="s">
         <v>345</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="C24" s="11" t="s">
         <v>346</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="B25" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="C25" s="11" t="s">
         <v>349</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="B26" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="C26" s="11" t="s">
         <v>352</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="B27" s="10" t="s">
         <v>354</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="C27" s="11" t="s">
         <v>355</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11029,65 +11007,65 @@
         <v>35</v>
       </c>
       <c r="B28" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="C28" s="11" t="s">
         <v>357</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="B29" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="C29" s="11" t="s">
         <v>360</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="B30" s="10" t="s">
         <v>362</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="C30" s="11" t="s">
         <v>363</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="B31" s="10" t="s">
         <v>365</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="C31" s="11" t="s">
         <v>366</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="B32" s="10" t="s">
         <v>368</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="C32" s="11" t="s">
         <v>369</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="B33" s="10" t="s">
         <v>371</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="C33" s="11" t="s">
         <v>372</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.2">
@@ -11095,38 +11073,38 @@
         <v>156</v>
       </c>
       <c r="B34" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="C34" s="13" t="s">
         <v>374</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="B35" s="12" t="s">
         <v>376</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="C35" s="13" t="s">
         <v>377</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="B36" s="12" t="s">
         <v>379</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>380</v>
       </c>
       <c r="C36" s="13"/>
     </row>
     <row r="37" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="B37" s="10" t="s">
         <v>381</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>382</v>
       </c>
       <c r="C37" s="11"/>
     </row>
@@ -11135,7 +11113,7 @@
         <v>141</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C38" s="13"/>
     </row>
@@ -11144,178 +11122,178 @@
         <v>145</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C39" s="11"/>
     </row>
     <row r="40" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="B40" s="10" t="s">
         <v>385</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>386</v>
       </c>
       <c r="C40" s="11"/>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="B41" s="10" t="s">
         <v>387</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>388</v>
       </c>
       <c r="C41" s="11"/>
     </row>
     <row r="42" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="B42" s="12" t="s">
         <v>389</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>390</v>
       </c>
       <c r="C42" s="13"/>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="B43" s="10" t="s">
         <v>391</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>392</v>
       </c>
       <c r="C43" s="11"/>
     </row>
     <row r="44" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="B44" s="10" t="s">
         <v>393</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>394</v>
       </c>
       <c r="C44" s="11"/>
     </row>
     <row r="45" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="B45" s="10" t="s">
         <v>395</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>396</v>
       </c>
       <c r="C45" s="11"/>
     </row>
     <row r="46" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="B46" s="10" t="s">
         <v>397</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>398</v>
       </c>
       <c r="C46" s="11"/>
     </row>
     <row r="47" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="B47" s="12" t="s">
         <v>399</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>400</v>
       </c>
       <c r="C47" s="13"/>
     </row>
     <row r="48" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="B48" s="10" t="s">
         <v>401</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>402</v>
       </c>
       <c r="C48" s="11"/>
     </row>
     <row r="49" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="B49" s="10" t="s">
         <v>403</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>404</v>
       </c>
       <c r="C49" s="11"/>
     </row>
     <row r="50" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
+        <v>404</v>
+      </c>
+      <c r="B50" s="12" t="s">
         <v>405</v>
-      </c>
-      <c r="B50" s="12" t="s">
-        <v>406</v>
       </c>
       <c r="C50" s="13"/>
     </row>
     <row r="51" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="B51" s="12" t="s">
         <v>407</v>
-      </c>
-      <c r="B51" s="12" t="s">
-        <v>408</v>
       </c>
       <c r="C51" s="13"/>
     </row>
     <row r="52" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="B52" s="10" t="s">
         <v>409</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>410</v>
       </c>
       <c r="C52" s="11"/>
     </row>
     <row r="53" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="B53" s="12" t="s">
         <v>411</v>
-      </c>
-      <c r="B53" s="12" t="s">
-        <v>412</v>
       </c>
       <c r="C53" s="13"/>
     </row>
     <row r="54" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="B54" s="10" t="s">
         <v>413</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>414</v>
       </c>
       <c r="C54" s="11"/>
     </row>
     <row r="55" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="B55" s="12" t="s">
         <v>415</v>
-      </c>
-      <c r="B55" s="12" t="s">
-        <v>416</v>
       </c>
       <c r="C55" s="13"/>
     </row>
     <row r="56" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="B56" s="12" t="s">
         <v>417</v>
-      </c>
-      <c r="B56" s="12" t="s">
-        <v>418</v>
       </c>
       <c r="C56" s="13"/>
     </row>
     <row r="57" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="B57" s="12" t="s">
         <v>419</v>
-      </c>
-      <c r="B57" s="12" t="s">
-        <v>420</v>
       </c>
       <c r="C57" s="13"/>
     </row>
     <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="B58" s="10" t="s">
         <v>421</v>
-      </c>
-      <c r="B58" s="10" t="s">
-        <v>422</v>
       </c>
       <c r="C58" s="11"/>
     </row>
@@ -11344,13 +11322,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>103</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -11358,7 +11336,7 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C2">
         <v>1.5</v>
@@ -11388,7 +11366,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>103</v>
@@ -11425,7 +11403,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">

--- a/images/image_schema_main_v0.1.xlsx
+++ b/images/image_schema_main_v0.1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/providen/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/providen/Documents/EI/Projects/COPO-schemas/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4472090-4702-D44F-B07A-523EF3BE2DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0434D73-DDBF-BA45-8F55-3CA1EF9EBD92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35480" yWindow="-2600" windowWidth="33160" windowHeight="21400" xr2:uid="{7BD8D0E6-E1F4-E04F-9790-31602B31B6DB}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="462">
   <si>
     <t>component_name</t>
   </si>
@@ -2535,9 +2535,9 @@
   </sheetPr>
   <dimension ref="A1:P698"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H5" sqref="H5"/>
+      <selection pane="topRight" activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3530,9 +3530,6 @@
       </c>
       <c r="F25" s="1" t="b">
         <v>1</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>101</v>

--- a/images/image_schema_main_v0.1.xlsx
+++ b/images/image_schema_main_v0.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/providen/Documents/EI/Projects/COPO-schemas/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0434D73-DDBF-BA45-8F55-3CA1EF9EBD92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D413AC3D-A388-C448-8003-33465670CCBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35480" yWindow="-2600" windowWidth="33160" windowHeight="21400" xr2:uid="{7BD8D0E6-E1F4-E04F-9790-31602B31B6DB}"/>
+    <workbookView xWindow="35480" yWindow="-2600" windowWidth="33160" windowHeight="21400" activeTab="3" xr2:uid="{7BD8D0E6-E1F4-E04F-9790-31602B31B6DB}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -24,10 +24,10 @@
     <sheet name="term_mapping" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$O$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$O$31</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">regex_to_formula!$A$1:$C$53</definedName>
-    <definedName name="COMPONENT_NAME">data!$A$24:$A$5011</definedName>
-    <definedName name="Z_D34CFE6F_6B19_C846_A6A5_7A3E0DEDB173_.wvu.FilterData" localSheetId="0" hidden="1">data!$A$1:$O$79</definedName>
+    <definedName name="COMPONENT_NAME">data!$A$24:$A$5010</definedName>
+    <definedName name="Z_D34CFE6F_6B19_C846_A6A5_7A3E0DEDB173_.wvu.FilterData" localSheetId="0" hidden="1">data!$A$1:$O$78</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="461">
   <si>
     <t>component_name</t>
   </si>
@@ -873,9 +873,6 @@
   </si>
   <si>
     <t>component_required</t>
-  </si>
-  <si>
-    <t>repository_bia</t>
   </si>
   <si>
     <t>repository_zenodo</t>
@@ -2208,7 +2205,7 @@
 <file path=xl/namedSheetViews/namedSheetView1.xml><?xml version="1.0" encoding="utf-8"?>
 <namedSheetViews xmlns="http://schemas.microsoft.com/office/spreadsheetml/2019/namedsheetviews" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <namedSheetView name="View1" id="{6954CA39-3A4A-425E-8D74-F55DAFA5B207}">
-    <nsvFilter filterId="{545CA0C1-0282-3A43-9C60-512DE414A571}" ref="A1:O698" tableId="0"/>
+    <nsvFilter filterId="{545CA0C1-0282-3A43-9C60-512DE414A571}" ref="A1:O697" tableId="0"/>
   </namedSheetView>
 </namedSheetViews>
 </file>
@@ -2533,11 +2530,11 @@
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:P698"/>
+  <dimension ref="A1:P697"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G43" sqref="G43"/>
+      <selection pane="topRight" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2674,7 +2671,7 @@
         <v>27</v>
       </c>
       <c r="K3" s="43" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="L3" s="38" t="s">
         <v>20</v>
@@ -2716,7 +2713,7 @@
         <v>27</v>
       </c>
       <c r="K4" s="43" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>20</v>
@@ -3487,7 +3484,7 @@
         <v>17</v>
       </c>
       <c r="D24" s="67" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E24" s="67"/>
       <c r="F24" s="68" t="b">
@@ -3561,7 +3558,7 @@
         <v>103</v>
       </c>
       <c r="D26" s="2" t="str">
-        <f t="shared" ref="D26:D80" si="5">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C26, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
+        <f t="shared" ref="D26:D79" si="5">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C26, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
         <v>Name</v>
       </c>
       <c r="F26" s="1" t="b">
@@ -3586,7 +3583,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>99</v>
       </c>
@@ -3620,83 +3617,81 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>Rembi Version</v>
-      </c>
-      <c r="F28" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I28" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M28" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N28" s="20"/>
-      <c r="O28" s="52" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="33" t="s">
+    <row r="28" spans="1:15" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="B29" s="33" t="s">
+      <c r="B28" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="33" t="s">
+      <c r="C28" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="33" t="str">
+      <c r="D28" s="33" t="str">
         <f t="shared" si="5"/>
         <v>Study ID</v>
       </c>
-      <c r="E29" s="33"/>
-      <c r="F29" s="34" t="b">
+      <c r="E28" s="33"/>
+      <c r="F28" s="34" t="b">
         <v>0</v>
       </c>
-      <c r="G29" s="34" t="s">
+      <c r="G28" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="H29" s="33" t="s">
+      <c r="H28" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="I29" s="33" t="s">
+      <c r="I28" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="33" t="s">
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="M29" s="33" t="s">
+      <c r="M28" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="N29" s="35"/>
-      <c r="O29" s="36" t="s">
+      <c r="N28" s="35"/>
+      <c r="O28" s="36" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D29" s="2" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C29, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
+        <v>Annotation ID</v>
+      </c>
+      <c r="F29" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N29" s="53"/>
+      <c r="O29" s="55" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3708,24 +3703,24 @@
         <v>23</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D30" s="2" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C30, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
-        <v>Annotation ID</v>
+        <v>Annotation Overview</v>
       </c>
       <c r="F30" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="J30" s="2"/>
-      <c r="K30" s="2" t="s">
-        <v>111</v>
+      <c r="K30" s="56" t="s">
+        <v>115</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>20</v>
@@ -3734,7 +3729,7 @@
         <v>21</v>
       </c>
       <c r="N30" s="53"/>
-      <c r="O30" s="55" t="s">
+      <c r="O30" s="41" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3746,34 +3741,34 @@
         <v>23</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D31" s="2" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C31, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
-        <v>Annotation Overview</v>
+        <v>File Type</v>
       </c>
       <c r="F31" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="J31" s="2"/>
-      <c r="K31" s="56" t="s">
-        <v>115</v>
-      </c>
+      <c r="K31" s="2"/>
       <c r="L31" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M31" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N31" s="53"/>
+      <c r="N31" s="19" t="s">
+        <v>119</v>
+      </c>
       <c r="O31" s="41" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3783,32 +3778,30 @@
       <c r="B32" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>116</v>
+      <c r="C32" t="s">
+        <v>120</v>
       </c>
       <c r="D32" s="2" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C32, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
-        <v>File Type</v>
+        <f t="shared" ref="D32" si="6">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C32, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
+        <v>Annotation Type</v>
       </c>
       <c r="F32" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H32" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
+      <c r="H32" t="s">
+        <v>121</v>
+      </c>
+      <c r="I32" t="s">
+        <v>122</v>
+      </c>
       <c r="L32" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M32" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N32" s="19" t="s">
-        <v>119</v>
+        <v>123</v>
+      </c>
+      <c r="M32" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="N32" s="57" t="s">
+        <v>124</v>
       </c>
       <c r="O32" s="41" t="s">
         <v>47</v>
@@ -3822,32 +3815,29 @@
         <v>23</v>
       </c>
       <c r="C33" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D33" s="2" t="str">
-        <f t="shared" ref="D33" si="6">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C33, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
-        <v>Annotation Type</v>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C33, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
+        <v>Annotation Method</v>
       </c>
       <c r="F33" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="I33" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="M33" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="N33" s="57" t="s">
-        <v>124</v>
+        <v>20</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="O33" s="41" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3858,20 +3848,20 @@
         <v>23</v>
       </c>
       <c r="C34" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D34" s="2" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C34, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
-        <v>Annotation Method</v>
+        <v>Annotation Criteria</v>
       </c>
       <c r="F34" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="I34" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L34" s="2" t="s">
         <v>20</v>
@@ -3880,7 +3870,7 @@
         <v>21</v>
       </c>
       <c r="O34" s="41" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3891,20 +3881,20 @@
         <v>23</v>
       </c>
       <c r="C35" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D35" s="2" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C35, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
-        <v>Annotation Criteria</v>
+        <v>Annotation Coverage</v>
       </c>
       <c r="F35" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="I35" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="L35" s="2" t="s">
         <v>20</v>
@@ -3924,20 +3914,20 @@
         <v>23</v>
       </c>
       <c r="C36" t="s">
-        <v>131</v>
-      </c>
-      <c r="D36" s="2" t="str">
+        <v>134</v>
+      </c>
+      <c r="D36" s="58" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C36, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
-        <v>Annotation Coverage</v>
+        <v>Annotation Confidence Level</v>
       </c>
       <c r="F36" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="I36" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L36" s="2" t="s">
         <v>20</v>
@@ -3949,162 +3939,168 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C37" t="s">
-        <v>134</v>
-      </c>
-      <c r="D37" s="58" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C37, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
-        <v>Annotation Confidence Level</v>
-      </c>
-      <c r="F37" s="1" t="b">
+    <row r="37" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="33" t="s">
+        <v>424</v>
+      </c>
+      <c r="B37" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="33" t="str">
+        <f t="shared" ref="D37" si="7">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C37, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
+        <v>Study ID</v>
+      </c>
+      <c r="E37" s="33"/>
+      <c r="F37" s="34" t="b">
         <v>0</v>
       </c>
-      <c r="H37" t="s">
-        <v>135</v>
-      </c>
-      <c r="I37" t="s">
-        <v>136</v>
-      </c>
-      <c r="L37" s="2" t="s">
+      <c r="G37" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="H37" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="I37" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="M37" s="2" t="s">
+      <c r="M37" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="O37" s="41" t="s">
-        <v>47</v>
+      <c r="N37" s="35"/>
+      <c r="O37" s="36" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="33" t="s">
-        <v>425</v>
-      </c>
-      <c r="B38" s="33" t="s">
+      <c r="A38" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="D38" s="33" t="str">
-        <f t="shared" ref="D38" si="7">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C38, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
-        <v>Study ID</v>
-      </c>
-      <c r="E38" s="33"/>
-      <c r="F38" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="G38" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="H38" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="I38" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="J38" s="33"/>
-      <c r="K38" s="33"/>
-      <c r="L38" s="33" t="s">
+      <c r="C38" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="D38" s="2" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C38, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
+        <v>Person ID</v>
+      </c>
+      <c r="F38" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M38" s="33" t="s">
+      <c r="M38" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N38" s="35"/>
-      <c r="O38" s="36" t="s">
+      <c r="N38" s="20"/>
+      <c r="O38" s="41" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>431</v>
+        <v>108</v>
       </c>
       <c r="D39" s="2" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C39, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
-        <v>Person ID</v>
+        <v>Annotation ID</v>
       </c>
       <c r="F39" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>137</v>
+        <v>0</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
+      <c r="K39" s="2" t="s">
+        <v>111</v>
+      </c>
       <c r="L39" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M39" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N39" s="20"/>
-      <c r="O39" s="41" t="s">
+      <c r="N39" s="53"/>
+      <c r="O39" s="55" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B40" s="64" t="s">
         <v>425</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D40" s="2" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C40, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
-        <v>Annotation ID</v>
+      <c r="C40" s="64" t="s">
+        <v>426</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>428</v>
       </c>
       <c r="F40" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G40" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>109</v>
+      <c r="H40" s="6" t="s">
+        <v>139</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2" t="s">
-        <v>111</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="K40" s="2"/>
       <c r="L40" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M40" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N40" s="53"/>
-      <c r="O40" s="55" t="s">
+      <c r="N40" s="59" t="s">
+        <v>142</v>
+      </c>
+      <c r="O40" s="60" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B41" s="64" t="s">
         <v>425</v>
-      </c>
-      <c r="B41" s="64" t="s">
-        <v>426</v>
       </c>
       <c r="C41" s="64" t="s">
         <v>427</v>
@@ -4115,14 +4111,14 @@
       <c r="F41" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H41" s="6" t="s">
-        <v>139</v>
+      <c r="H41" s="53" t="s">
+        <v>143</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="K41" s="2"/>
       <c r="L41" s="2" t="s">
@@ -4132,36 +4128,36 @@
         <v>21</v>
       </c>
       <c r="N41" s="59" t="s">
-        <v>142</v>
-      </c>
-      <c r="O41" s="60" t="s">
+        <v>146</v>
+      </c>
+      <c r="O41" s="52" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="B42" s="64" t="s">
-        <v>426</v>
-      </c>
-      <c r="C42" s="64" t="s">
-        <v>428</v>
+        <v>424</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>430</v>
+        <v>148</v>
       </c>
       <c r="F42" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H42" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
+      </c>
+      <c r="I42" s="61" t="s">
+        <v>150</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="K42" s="2"/>
       <c r="L42" s="2" t="s">
@@ -4170,113 +4166,112 @@
       <c r="M42" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N42" s="59" t="s">
-        <v>146</v>
-      </c>
-      <c r="O42" s="52" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N42" s="61" t="s">
+        <v>152</v>
+      </c>
+      <c r="O42" s="41" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
+      </c>
+      <c r="D43" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Orcid ID</v>
       </c>
       <c r="F43" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H43" s="53" t="s">
-        <v>149</v>
-      </c>
-      <c r="I43" s="61" t="s">
-        <v>150</v>
+        <v>154</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>155</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="K43" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="L43" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M43" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N43" s="61" t="s">
-        <v>152</v>
-      </c>
+      <c r="N43" s="19"/>
       <c r="O43" s="41" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D44" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>Orcid ID</v>
+        <v>158</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="F44" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H44" s="53" t="s">
-        <v>154</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="J44" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="K44" s="2" t="s">
-        <v>157</v>
-      </c>
+      <c r="H44" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="I44" s="62" t="s">
+        <v>161</v>
+      </c>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
       <c r="L44" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M44" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N44" s="19"/>
+      <c r="N44" s="59" t="s">
+        <v>162</v>
+      </c>
       <c r="O44" s="41" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
+      </c>
+      <c r="D45" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Role</v>
       </c>
       <c r="F45" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="I45" s="62" t="s">
-        <v>161</v>
+        <v>164</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
@@ -4286,92 +4281,89 @@
       <c r="M45" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N45" s="59" t="s">
-        <v>162</v>
+      <c r="N45" s="20" t="s">
+        <v>166</v>
       </c>
       <c r="O45" s="41" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D46" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>Role</v>
-      </c>
-      <c r="F46" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M46" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N46" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="O46" s="41" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="33" t="s">
+    <row r="46" spans="1:15" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="B47" s="33" t="s">
+      <c r="B46" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="33" t="s">
+      <c r="C46" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="D47" s="33" t="str">
+      <c r="D46" s="33" t="str">
         <f t="shared" si="5"/>
         <v>Study ID</v>
       </c>
-      <c r="E47" s="33"/>
-      <c r="F47" s="34" t="b">
+      <c r="E46" s="33"/>
+      <c r="F46" s="34" t="b">
         <v>0</v>
       </c>
-      <c r="G47" s="34" t="s">
+      <c r="G46" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="H47" s="33" t="s">
+      <c r="H46" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="I47" s="33" t="s">
+      <c r="I46" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="J47" s="33"/>
-      <c r="K47" s="33"/>
-      <c r="L47" s="33" t="s">
+      <c r="J46" s="33"/>
+      <c r="K46" s="33"/>
+      <c r="L46" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="M47" s="33" t="s">
+      <c r="M46" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="N47" s="35"/>
-      <c r="O47" s="36" t="s">
+      <c r="N46" s="35"/>
+      <c r="O46" s="36" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F47" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N47" s="19"/>
+      <c r="O47" s="52" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>167</v>
       </c>
@@ -4382,31 +4374,40 @@
         <v>432</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>168</v>
+        <v>440</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>441</v>
       </c>
       <c r="F48" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>169</v>
+        <v>442</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
+        <v>443</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>444</v>
+      </c>
       <c r="L48" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N48" s="19"/>
-      <c r="O48" s="52" t="s">
+        <v>438</v>
+      </c>
+      <c r="N48" s="59" t="s">
+        <v>171</v>
+      </c>
+      <c r="O48" s="41" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>167</v>
       </c>
@@ -4416,41 +4417,41 @@
       <c r="C49" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>441</v>
+      <c r="D49" s="26" t="s">
+        <v>434</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="F49" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>384</v>
+        <v>435</v>
+      </c>
+      <c r="I49" s="2">
+        <v>8036</v>
+      </c>
+      <c r="J49" s="33" t="s">
+        <v>436</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="L49" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M49" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="N49" s="59" t="s">
         <v>439</v>
       </c>
-      <c r="N49" s="59" t="s">
-        <v>171</v>
-      </c>
-      <c r="O49" s="41" t="s">
+      <c r="O49" s="65" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>167</v>
       </c>
@@ -4458,39 +4459,35 @@
         <v>16</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>434</v>
+        <v>175</v>
       </c>
       <c r="D50" s="26" t="s">
-        <v>435</v>
+        <v>176</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>434</v>
+        <v>175</v>
       </c>
       <c r="F50" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="I50" s="2">
-        <v>8036</v>
-      </c>
-      <c r="J50" s="33" t="s">
-        <v>437</v>
-      </c>
-      <c r="K50" s="2" t="s">
-        <v>438</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
       <c r="L50" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>439</v>
+        <v>179</v>
       </c>
       <c r="N50" s="59" t="s">
-        <v>440</v>
-      </c>
-      <c r="O50" s="65" t="s">
+        <v>180</v>
+      </c>
+      <c r="O50" s="55" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4499,25 +4496,23 @@
         <v>167</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D51" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
+      </c>
+      <c r="D51" s="2" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C51, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
+        <v>Biological Entity</v>
       </c>
       <c r="F51" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
@@ -4525,11 +4520,9 @@
         <v>20</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="N51" s="59" t="s">
-        <v>180</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="N51" s="19"/>
       <c r="O51" s="55" t="s">
         <v>22</v>
       </c>
@@ -4538,62 +4531,65 @@
       <c r="A52" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" t="s">
         <v>23</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>172</v>
+      <c r="C52" t="s">
+        <v>181</v>
       </c>
       <c r="D52" s="2" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C52, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
-        <v>Biological Entity</v>
+        <v>Common Name</v>
       </c>
       <c r="F52" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H52" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
-      <c r="L52" s="2" t="s">
+      <c r="H52" t="s">
+        <v>182</v>
+      </c>
+      <c r="I52" t="s">
+        <v>183</v>
+      </c>
+      <c r="L52" t="s">
         <v>20</v>
       </c>
       <c r="M52" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N52" s="19"/>
-      <c r="O52" s="55" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O52" s="41" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C53" t="s">
-        <v>181</v>
+      <c r="C53" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="D53" s="2" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C53, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
-        <v>Common Name</v>
+        <f t="shared" si="5"/>
+        <v>Description</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>445</v>
       </c>
       <c r="F53" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H53" t="s">
-        <v>182</v>
-      </c>
-      <c r="I53" t="s">
-        <v>183</v>
-      </c>
-      <c r="L53" t="s">
+      <c r="H53" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="I53" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M53" s="2" t="s">
@@ -4604,7 +4600,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>167</v>
       </c>
@@ -4612,23 +4608,20 @@
         <v>23</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>28</v>
+        <v>186</v>
       </c>
       <c r="D54" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>Description</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>446</v>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C54, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
+        <v>Intrinsic Variables</v>
       </c>
       <c r="F54" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="I54" s="53" t="s">
-        <v>185</v>
+        <v>187</v>
+      </c>
+      <c r="I54" t="s">
+        <v>188</v>
       </c>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
@@ -4643,7 +4636,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>167</v>
       </c>
@@ -4651,20 +4644,20 @@
         <v>23</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D55" s="2" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C55, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
-        <v>Intrinsic Variables</v>
+        <v>Extrinsic Variables</v>
       </c>
       <c r="F55" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="I55" t="s">
-        <v>188</v>
+        <v>190</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
@@ -4679,7 +4672,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>167</v>
       </c>
@@ -4687,20 +4680,20 @@
         <v>23</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D56" s="2" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C56, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
-        <v>Extrinsic Variables</v>
+        <f t="shared" si="5"/>
+        <v>Experimental Variables</v>
       </c>
       <c r="F56" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
@@ -4711,83 +4704,86 @@
         <v>21</v>
       </c>
       <c r="N56" s="19"/>
-      <c r="O56" s="41" t="s">
+      <c r="O56" s="52" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D57" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>Experimental Variables</v>
-      </c>
-      <c r="F57" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="J57" s="2"/>
-      <c r="K57" s="2"/>
-      <c r="L57" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M57" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N57" s="19"/>
-      <c r="O57" s="52" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="50" t="s">
+    <row r="57" spans="1:15" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="B58" s="33" t="s">
+      <c r="B57" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C58" s="33" t="s">
+      <c r="C57" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="D58" s="33" t="str">
+      <c r="D57" s="33" t="str">
         <f t="shared" si="5"/>
         <v>Study ID</v>
       </c>
-      <c r="E58" s="33"/>
-      <c r="F58" s="34" t="b">
+      <c r="E57" s="33"/>
+      <c r="F57" s="34" t="b">
         <v>0</v>
       </c>
-      <c r="G58" s="34" t="s">
+      <c r="G57" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="H58" s="33" t="s">
+      <c r="H57" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="I58" s="33" t="s">
+      <c r="I57" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="J58" s="33"/>
-      <c r="K58" s="33"/>
-      <c r="L58" s="33" t="s">
+      <c r="J57" s="33"/>
+      <c r="K57" s="33"/>
+      <c r="L57" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="M58" s="33" t="s">
+      <c r="M57" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="N58" s="35"/>
-      <c r="O58" s="54" t="s">
+      <c r="N57" s="35"/>
+      <c r="O57" s="54" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D58" s="2" t="str">
+        <f t="shared" ref="D58" si="8">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C58, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
+        <v>Specimen ID</v>
+      </c>
+      <c r="F58" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N58" s="53"/>
+      <c r="O58" s="41" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4799,23 +4795,19 @@
         <v>16</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D59" s="2" t="str">
-        <f t="shared" ref="D59" si="8">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C59, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
-        <v>Specimen ID</v>
+        <v>431</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="F59" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G59" s="1" t="s">
-        <v>195</v>
-      </c>
       <c r="H59" s="2" t="s">
-        <v>205</v>
+        <v>169</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
@@ -4825,12 +4817,12 @@
       <c r="M59" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N59" s="53"/>
-      <c r="O59" s="41" t="s">
+      <c r="N59" s="19"/>
+      <c r="O59" s="52" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>195</v>
       </c>
@@ -4838,19 +4830,22 @@
         <v>16</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>432</v>
+        <v>100</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>168</v>
+        <v>196</v>
       </c>
       <c r="F60" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>169</v>
+        <v>101</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>170</v>
+        <v>102</v>
       </c>
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
@@ -4870,25 +4865,23 @@
         <v>195</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
+      </c>
+      <c r="D61" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Sample Preparation</v>
       </c>
       <c r="F61" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G61" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="H61" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>102</v>
+        <v>198</v>
+      </c>
+      <c r="I61" s="53" t="s">
+        <v>199</v>
       </c>
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
@@ -4899,11 +4892,11 @@
         <v>21</v>
       </c>
       <c r="N61" s="19"/>
-      <c r="O61" s="52" t="s">
+      <c r="O61" s="41" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>195</v>
       </c>
@@ -4911,22 +4904,21 @@
         <v>23</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="D62" s="2" t="str">
+        <v>200</v>
+      </c>
+      <c r="D62" s="58" t="str">
         <f t="shared" si="5"/>
-        <v>Sample Preparation</v>
+        <v>Growth Protocol</v>
       </c>
       <c r="F62" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="I62" s="53" t="s">
-        <v>199</v>
-      </c>
-      <c r="J62" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="I62" s="6" t="s">
+        <v>202</v>
+      </c>
       <c r="K62" s="2"/>
       <c r="L62" s="2" t="s">
         <v>20</v>
@@ -4936,85 +4928,89 @@
       </c>
       <c r="N62" s="19"/>
       <c r="O62" s="41" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A63" s="50" t="s">
+        <v>203</v>
+      </c>
+      <c r="B63" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Study ID</v>
+      </c>
+      <c r="E63" s="33"/>
+      <c r="F63" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="G63" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="H63" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="I63" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="J63" s="33"/>
+      <c r="K63" s="33"/>
+      <c r="L63" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="M63" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="N63" s="51"/>
+      <c r="O63" s="54" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D63" s="58" t="str">
-        <f t="shared" si="5"/>
-        <v>Growth Protocol</v>
-      </c>
-      <c r="F63" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="I63" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="K63" s="2"/>
-      <c r="L63" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M63" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N63" s="19"/>
-      <c r="O63" s="41" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A64" s="50" t="s">
+    <row r="64" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="B64" s="33" t="s">
+      <c r="B64" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C64" s="33" t="s">
-        <v>17</v>
+      <c r="C64" s="2" t="s">
+        <v>204</v>
       </c>
       <c r="D64" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>Study ID</v>
-      </c>
-      <c r="E64" s="33"/>
-      <c r="F64" s="34" t="b">
+        <v>Specimen ID</v>
+      </c>
+      <c r="F64" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G64" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="H64" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="I64" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="J64" s="33"/>
-      <c r="K64" s="33"/>
-      <c r="L64" s="33" t="s">
+      <c r="G64" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M64" s="33" t="s">
+      <c r="M64" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N64" s="51"/>
-      <c r="O64" s="54" t="s">
+      <c r="N64" s="53"/>
+      <c r="O64" s="41" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>203</v>
       </c>
@@ -5022,23 +5018,20 @@
         <v>16</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D65" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>Specimen ID</v>
+        <v>Image Acquisition ID</v>
       </c>
       <c r="F65" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>195</v>
+        <v>1</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
@@ -5048,12 +5041,12 @@
       <c r="M65" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N65" s="53"/>
+      <c r="N65" s="19"/>
       <c r="O65" s="41" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>203</v>
       </c>
@@ -5061,71 +5054,71 @@
         <v>16</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D66" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>Image Acquisition ID</v>
+        <f t="shared" ref="D66" si="9">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C66, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
+        <v>Image Method</v>
       </c>
       <c r="F66" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>209</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="I66" s="2"/>
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
       <c r="L66" s="2" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N66" s="19"/>
+        <v>212</v>
+      </c>
+      <c r="N66" s="19" t="s">
+        <v>213</v>
+      </c>
       <c r="O66" s="41" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>203</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="D67" s="2" t="str">
-        <f t="shared" ref="D67" si="9">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C67, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
-        <v>Image Method</v>
+        <f t="shared" si="5"/>
+        <v>Imaging Instrument</v>
       </c>
       <c r="F67" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="I67" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="I67" s="53" t="s">
+        <v>216</v>
+      </c>
       <c r="J67" s="2"/>
       <c r="K67" s="2"/>
       <c r="L67" s="2" t="s">
-        <v>123</v>
+        <v>20</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="N67" s="19" t="s">
-        <v>213</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="N67" s="19"/>
       <c r="O67" s="41" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>203</v>
       </c>
@@ -5133,20 +5126,20 @@
         <v>23</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D68" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>Imaging Instrument</v>
+        <v>Image Acquisition Parameters</v>
       </c>
       <c r="F68" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="I68" s="53" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="J68" s="2"/>
       <c r="K68" s="2"/>
@@ -5157,87 +5150,90 @@
         <v>21</v>
       </c>
       <c r="N68" s="19"/>
-      <c r="O68" s="41" t="s">
+      <c r="O68" s="52" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="D69" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>Image Acquisition Parameters</v>
-      </c>
-      <c r="F69" s="1" t="b">
+    <row r="69" spans="1:15" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="50" t="s">
+        <v>222</v>
+      </c>
+      <c r="B69" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D69" s="33" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C69, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
+        <v>Study ID</v>
+      </c>
+      <c r="E69" s="33"/>
+      <c r="F69" s="34" t="b">
         <v>0</v>
       </c>
-      <c r="H69" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="I69" s="53" t="s">
-        <v>219</v>
-      </c>
-      <c r="J69" s="2"/>
-      <c r="K69" s="2"/>
-      <c r="L69" s="2" t="s">
+      <c r="G69" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="H69" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="I69" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="J69" s="33"/>
+      <c r="K69" s="33"/>
+      <c r="L69" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="M69" s="2" t="s">
+      <c r="M69" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="N69" s="19"/>
-      <c r="O69" s="52" t="s">
+      <c r="N69" s="51"/>
+      <c r="O69" s="36" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="50" t="s">
+    <row r="70" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="B70" s="33" t="s">
+      <c r="B70" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C70" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="D70" s="33" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C70, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
-        <v>Study ID</v>
-      </c>
-      <c r="E70" s="33"/>
-      <c r="F70" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="G70" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="H70" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="I70" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="J70" s="33"/>
-      <c r="K70" s="33"/>
-      <c r="L70" s="33" t="s">
+      <c r="C70" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D70" s="2" t="str">
+        <f t="shared" ref="D70" si="10">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C70, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
+        <v>Image Analysis ID</v>
+      </c>
+      <c r="F70" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2"/>
+      <c r="L70" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M70" s="33" t="s">
+      <c r="M70" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N70" s="51"/>
-      <c r="O70" s="36" t="s">
+      <c r="N70" s="53"/>
+      <c r="O70" s="41" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
         <v>222</v>
       </c>
@@ -5245,23 +5241,23 @@
         <v>16</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>221</v>
+        <v>100</v>
       </c>
       <c r="D71" s="2" t="str">
-        <f t="shared" ref="D71" si="10">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C71, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
-        <v>Image Analysis ID</v>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C71, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
+        <v>Study Component ID</v>
       </c>
       <c r="F71" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>222</v>
+        <v>99</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>223</v>
+        <v>101</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>224</v>
+        <v>102</v>
       </c>
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
@@ -5271,36 +5267,33 @@
       <c r="M71" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N71" s="53"/>
-      <c r="O71" s="41" t="s">
+      <c r="N71" s="19"/>
+      <c r="O71" s="52" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="4" t="s">
+    <row r="72" spans="1:15" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
         <v>222</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>100</v>
+        <v>233</v>
       </c>
       <c r="D72" s="2" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C72, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
-        <v>Study Component ID</v>
+        <f t="shared" ref="D72" si="11">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C72, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
+        <v>Analysis Overview</v>
       </c>
       <c r="F72" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G72" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="H72" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="I72" s="2" t="s">
-        <v>102</v>
+        <v>234</v>
+      </c>
+      <c r="I72" s="53" t="s">
+        <v>235</v>
       </c>
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
@@ -5310,84 +5303,84 @@
       <c r="M72" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N72" s="19"/>
-      <c r="O72" s="52" t="s">
+      <c r="N72" s="53"/>
+      <c r="O72" s="41" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="D73" s="2" t="str">
-        <f t="shared" ref="D73" si="11">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C73, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
-        <v>Analysis Overview</v>
-      </c>
-      <c r="F73" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="I73" s="53" t="s">
-        <v>235</v>
-      </c>
-      <c r="J73" s="2"/>
-      <c r="K73" s="2"/>
-      <c r="L73" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M73" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N73" s="53"/>
-      <c r="O73" s="41" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="50" t="s">
+    <row r="73" spans="1:15" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="50" t="s">
         <v>220</v>
       </c>
-      <c r="B74" s="33" t="s">
+      <c r="B73" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C74" s="33" t="s">
+      <c r="C73" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="D74" s="33" t="str">
+      <c r="D73" s="33" t="str">
         <f t="shared" si="5"/>
         <v>Study ID</v>
       </c>
-      <c r="E74" s="33"/>
-      <c r="F74" s="34" t="b">
+      <c r="E73" s="33"/>
+      <c r="F73" s="34" t="b">
         <v>0</v>
       </c>
-      <c r="G74" s="34" t="s">
+      <c r="G73" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="H74" s="33" t="s">
+      <c r="H73" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="I74" s="33" t="s">
+      <c r="I73" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="J74" s="33"/>
-      <c r="K74" s="33"/>
-      <c r="L74" s="33" t="s">
+      <c r="J73" s="33"/>
+      <c r="K73" s="33"/>
+      <c r="L73" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="M74" s="33" t="s">
+      <c r="M73" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="N74" s="51"/>
-      <c r="O74" s="54" t="s">
+      <c r="N73" s="51"/>
+      <c r="O73" s="54" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A74" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D74" s="2" t="str">
+        <f t="shared" ref="D74" si="12">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C74, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
+        <v>Image Correlation ID</v>
+      </c>
+      <c r="F74" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+      <c r="L74" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M74" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N74" s="53"/>
+      <c r="O74" s="41" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5399,20 +5392,23 @@
         <v>16</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>447</v>
+        <v>221</v>
       </c>
       <c r="D75" s="2" t="str">
-        <f t="shared" ref="D75" si="12">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C75, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
-        <v>Image Correlation ID</v>
+        <f t="shared" si="5"/>
+        <v>Image Analysis ID</v>
       </c>
       <c r="F75" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>222</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>448</v>
+        <v>223</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>449</v>
+        <v>224</v>
       </c>
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
@@ -5432,26 +5428,23 @@
         <v>220</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D76" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>Image Analysis ID</v>
+        <v>Spatial and Temporal Alignment</v>
       </c>
       <c r="F76" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G76" s="1" t="s">
-        <v>222</v>
-      </c>
       <c r="H76" s="2" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
@@ -5466,7 +5459,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>220</v>
       </c>
@@ -5474,21 +5467,19 @@
         <v>23</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D77" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>Spatial and Temporal Alignment</v>
+        <v>Fiducials Used</v>
       </c>
       <c r="F77" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H77" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="I77" s="2" t="s">
-        <v>227</v>
-      </c>
+      <c r="H77" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="I77" s="2"/>
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
       <c r="L77" s="2" t="s">
@@ -5502,25 +5493,24 @@
         <v>22</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>220</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="D78" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>Fiducials Used</v>
+      <c r="C78" s="53" t="s">
+        <v>230</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>231</v>
       </c>
       <c r="F78" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H78" s="53" t="s">
-        <v>229</v>
+      <c r="H78" s="2" t="s">
+        <v>232</v>
       </c>
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
@@ -5536,80 +5526,86 @@
         <v>22</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C79" s="53" t="s">
-        <v>230</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="F79" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="I79" s="2"/>
-      <c r="J79" s="2"/>
-      <c r="K79" s="2"/>
-      <c r="L79" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M79" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N79" s="53"/>
-      <c r="O79" s="41" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="50" t="s">
+    <row r="79" spans="1:15" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="50" t="s">
         <v>236</v>
       </c>
-      <c r="B80" s="33" t="s">
+      <c r="B79" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C80" s="33" t="s">
+      <c r="C79" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="D80" s="33" t="str">
+      <c r="D79" s="33" t="str">
         <f t="shared" si="5"/>
         <v>Study ID</v>
       </c>
-      <c r="E80" s="33"/>
-      <c r="F80" s="34" t="b">
+      <c r="E79" s="33"/>
+      <c r="F79" s="34" t="b">
         <v>0</v>
       </c>
-      <c r="G80" s="34" t="s">
+      <c r="G79" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="H80" s="33" t="s">
+      <c r="H79" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="I80" s="33" t="s">
+      <c r="I79" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="J80" s="33"/>
-      <c r="K80" s="33"/>
-      <c r="L80" s="33" t="s">
+      <c r="J79" s="33"/>
+      <c r="K79" s="33"/>
+      <c r="L79" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="M80" s="33" t="s">
+      <c r="M79" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="N80" s="51"/>
-      <c r="O80" s="54" t="s">
+      <c r="N79" s="51"/>
+      <c r="O79" s="54" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="81" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F80" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="L80" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" s="55" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>236</v>
       </c>
@@ -5617,38 +5613,37 @@
         <v>16</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>452</v>
+        <v>100</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>237</v>
+        <v>196</v>
       </c>
       <c r="F81" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>456</v>
+        <v>101</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="J81" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="K81" s="2" t="s">
-        <v>458</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="J81" s="2"/>
+      <c r="K81" s="2"/>
       <c r="L81" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M81" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N81" s="2"/>
-      <c r="O81" s="55" t="s">
+      <c r="N81" s="19"/>
+      <c r="O81" s="52" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="82" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>236</v>
       </c>
@@ -5656,22 +5651,19 @@
         <v>16</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>100</v>
+        <v>452</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>196</v>
+        <v>453</v>
       </c>
       <c r="F82" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G82" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="H82" s="2" t="s">
-        <v>101</v>
+        <v>454</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>102</v>
+        <v>458</v>
       </c>
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
@@ -5679,10 +5671,10 @@
         <v>20</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N82" s="19"/>
-      <c r="O82" s="52" t="s">
+        <v>241</v>
+      </c>
+      <c r="N82" s="2"/>
+      <c r="O82" s="55" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5691,32 +5683,38 @@
         <v>236</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>454</v>
+        <v>108</v>
+      </c>
+      <c r="D83" s="2" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C83, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
+        <v>Annotation ID</v>
       </c>
       <c r="F83" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H83" s="2" t="s">
-        <v>455</v>
+      <c r="G83" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H83" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>459</v>
+        <v>110</v>
       </c>
       <c r="J83" s="2"/>
-      <c r="K83" s="2"/>
+      <c r="K83" s="2" t="s">
+        <v>111</v>
+      </c>
       <c r="L83" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="N83" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="N83" s="53"/>
       <c r="O83" s="55" t="s">
         <v>22</v>
       </c>
@@ -5729,28 +5727,22 @@
         <v>23</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D84" s="2" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C84, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
-        <v>Annotation ID</v>
+        <v>239</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>449</v>
       </c>
       <c r="F84" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G84" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H84" s="6" t="s">
-        <v>109</v>
+      <c r="H84" s="2" t="s">
+        <v>450</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>110</v>
+        <v>240</v>
       </c>
       <c r="J84" s="2"/>
-      <c r="K84" s="2" t="s">
-        <v>111</v>
-      </c>
+      <c r="K84" s="2"/>
       <c r="L84" s="2" t="s">
         <v>20</v>
       </c>
@@ -5758,7 +5750,7 @@
         <v>21</v>
       </c>
       <c r="N84" s="53"/>
-      <c r="O84" s="55" t="s">
+      <c r="O84" s="41" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5770,22 +5762,25 @@
         <v>23</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>450</v>
+        <v>242</v>
+      </c>
+      <c r="D85" s="2" t="str">
+        <f t="shared" ref="D85:D140" si="13">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C85, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
+        <v>Transformations</v>
       </c>
       <c r="F85" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>451</v>
+        <v>243</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="J85" s="2"/>
-      <c r="K85" s="2"/>
+      <c r="K85" s="56" t="s">
+        <v>245</v>
+      </c>
       <c r="L85" s="2" t="s">
         <v>20</v>
       </c>
@@ -5794,7 +5789,7 @@
       </c>
       <c r="N85" s="53"/>
       <c r="O85" s="41" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
     </row>
     <row r="86" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5804,25 +5799,21 @@
       <c r="B86" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>242</v>
+      <c r="C86" t="s">
+        <v>246</v>
       </c>
       <c r="D86" s="2" t="str">
-        <f t="shared" ref="D86:D141" si="13">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C86, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
-        <v>Transformations</v>
+        <f t="shared" si="13"/>
+        <v>Spatial Information</v>
       </c>
       <c r="F86" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H86" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="I86" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="J86" s="2"/>
-      <c r="K86" s="56" t="s">
-        <v>245</v>
+      <c r="H86" t="s">
+        <v>247</v>
+      </c>
+      <c r="I86" t="s">
+        <v>248</v>
       </c>
       <c r="L86" s="2" t="s">
         <v>20</v>
@@ -5830,7 +5821,6 @@
       <c r="M86" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N86" s="53"/>
       <c r="O86" s="41" t="s">
         <v>47</v>
       </c>
@@ -5843,20 +5833,26 @@
         <v>23</v>
       </c>
       <c r="C87" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D87" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>Spatial Information</v>
+        <v>Annotation Creation Time</v>
       </c>
       <c r="F87" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="I87" t="s">
-        <v>248</v>
+        <v>251</v>
+      </c>
+      <c r="J87" t="s">
+        <v>252</v>
+      </c>
+      <c r="K87" s="63" t="s">
+        <v>253</v>
       </c>
       <c r="L87" s="2" t="s">
         <v>20</v>
@@ -5869,43 +5865,13 @@
       </c>
     </row>
     <row r="88" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C88" t="s">
-        <v>249</v>
-      </c>
+      <c r="A88" s="4"/>
+      <c r="B88" s="2"/>
       <c r="D88" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>Annotation Creation Time</v>
-      </c>
-      <c r="F88" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H88" t="s">
-        <v>250</v>
-      </c>
-      <c r="I88" t="s">
-        <v>251</v>
-      </c>
-      <c r="J88" t="s">
-        <v>252</v>
-      </c>
-      <c r="K88" s="63" t="s">
-        <v>253</v>
-      </c>
-      <c r="L88" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M88" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O88" s="41" t="s">
-        <v>47</v>
-      </c>
+        <v/>
+      </c>
+      <c r="H88"/>
     </row>
     <row r="89" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4"/>
@@ -5917,8 +5883,6 @@
       <c r="H89"/>
     </row>
     <row r="90" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="4"/>
-      <c r="B90" s="2"/>
       <c r="D90" s="2" t="str">
         <f t="shared" si="13"/>
         <v/>
@@ -6277,14 +6241,14 @@
     </row>
     <row r="141" spans="4:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D141" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="D141:D204" si="14">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C141, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
         <v/>
       </c>
       <c r="H141"/>
     </row>
     <row r="142" spans="4:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D142" s="2" t="str">
-        <f t="shared" ref="D142:D205" si="14">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C142, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="H142"/>
@@ -6725,14 +6689,14 @@
     </row>
     <row r="205" spans="4:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D205" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="D205:D268" si="15">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C205, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
         <v/>
       </c>
       <c r="H205"/>
     </row>
     <row r="206" spans="4:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D206" s="2" t="str">
-        <f t="shared" ref="D206:D269" si="15">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C206, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H206"/>
@@ -7173,14 +7137,14 @@
     </row>
     <row r="269" spans="4:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D269" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="D269:D332" si="16">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C269, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
         <v/>
       </c>
       <c r="H269"/>
     </row>
     <row r="270" spans="4:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D270" s="2" t="str">
-        <f t="shared" ref="D270:D333" si="16">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C270, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="H270"/>
@@ -7621,14 +7585,14 @@
     </row>
     <row r="333" spans="4:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D333" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="D333:D396" si="17">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C333, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
         <v/>
       </c>
       <c r="H333"/>
     </row>
     <row r="334" spans="4:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D334" s="2" t="str">
-        <f t="shared" ref="D334:D397" si="17">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C334, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="H334"/>
@@ -8069,14 +8033,14 @@
     </row>
     <row r="397" spans="4:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D397" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="D397:D460" si="18">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C397, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
         <v/>
       </c>
       <c r="H397"/>
     </row>
     <row r="398" spans="4:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D398" s="2" t="str">
-        <f t="shared" ref="D398:D461" si="18">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C398, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="H398"/>
@@ -8517,14 +8481,14 @@
     </row>
     <row r="461" spans="4:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D461" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="D461:D524" si="19">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C461, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
         <v/>
       </c>
       <c r="H461"/>
     </row>
     <row r="462" spans="4:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D462" s="2" t="str">
-        <f t="shared" ref="D462:D525" si="19">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C462, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="H462"/>
@@ -8965,14 +8929,14 @@
     </row>
     <row r="525" spans="4:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D525" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="D525:D588" si="20">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C525, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
         <v/>
       </c>
       <c r="H525"/>
     </row>
     <row r="526" spans="4:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D526" s="2" t="str">
-        <f t="shared" ref="D526:D589" si="20">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C526, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="H526"/>
@@ -9413,14 +9377,14 @@
     </row>
     <row r="589" spans="4:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D589" s="2" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="D589:D652" si="21">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C589, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
         <v/>
       </c>
       <c r="H589"/>
     </row>
     <row r="590" spans="4:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D590" s="2" t="str">
-        <f t="shared" ref="D590:D653" si="21">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C590, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="H590"/>
@@ -9861,14 +9825,14 @@
     </row>
     <row r="653" spans="4:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D653" s="2" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="D653:D697" si="22">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C653, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
         <v/>
       </c>
       <c r="H653"/>
     </row>
     <row r="654" spans="4:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D654" s="2" t="str">
-        <f t="shared" ref="D654:D698" si="22">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C654, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="H654"/>
@@ -10174,35 +10138,28 @@
       </c>
       <c r="H697"/>
     </row>
-    <row r="698" spans="4:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D698" s="2" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="H698"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:O698" xr:uid="{545CA0C1-0282-3A43-9C60-512DE414A571}"/>
+  <autoFilter ref="A1:O697" xr:uid="{545CA0C1-0282-3A43-9C60-512DE414A571}"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F84:F1048576 F11:F48 F52:F80 F82" xr:uid="{CEA3A6B4-9E1E-4CF7-B7FA-77AD4F6AA7AC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F83:F1048576 F51:F79 F81 F11:F47" xr:uid="{CEA3A6B4-9E1E-4CF7-B7FA-77AD4F6AA7AC}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C10 O50:O51 D2:D48 D52:D1048576" xr:uid="{D3C8CE10-E7EB-B24A-855C-B8189CB5A06C}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O49 O51:O1048576" xr:uid="{9D0E69DF-5FA3-40DF-B082-58904B05C949}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C10 O49:O50 D51:D1048576 D2:D47" xr:uid="{D3C8CE10-E7EB-B24A-855C-B8189CB5A06C}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O50:O1048576 O2:O48" xr:uid="{9D0E69DF-5FA3-40DF-B082-58904B05C949}">
       <formula1>"M,O"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="I45" r:id="rId1" xr:uid="{AB8ED804-1E2D-4EF4-B510-D9B18512F692}"/>
-    <hyperlink ref="N33" r:id="rId2" xr:uid="{5A51FA1A-51CA-4CF7-8914-5A9CAEE8E97E}"/>
-    <hyperlink ref="N32" r:id="rId3" xr:uid="{D5D66972-6276-4E2F-997B-55CBB00C7D44}"/>
-    <hyperlink ref="N67" r:id="rId4" xr:uid="{1BA7EC56-086C-4EC9-BB1D-BAC13C5854FF}"/>
+    <hyperlink ref="I44" r:id="rId1" xr:uid="{AB8ED804-1E2D-4EF4-B510-D9B18512F692}"/>
+    <hyperlink ref="N32" r:id="rId2" xr:uid="{5A51FA1A-51CA-4CF7-8914-5A9CAEE8E97E}"/>
+    <hyperlink ref="N31" r:id="rId3" xr:uid="{D5D66972-6276-4E2F-997B-55CBB00C7D44}"/>
+    <hyperlink ref="N66" r:id="rId4" xr:uid="{1BA7EC56-086C-4EC9-BB1D-BAC13C5854FF}"/>
     <hyperlink ref="N9" r:id="rId5" xr:uid="{93F94D09-36DE-4131-AE3A-7D6B5F94393C}"/>
     <hyperlink ref="N13" r:id="rId6" xr:uid="{C0A012C1-AF6E-42C0-9785-28090D4AC01B}"/>
-    <hyperlink ref="I43" r:id="rId7" xr:uid="{92A7E8D7-B0FB-4FEE-B36F-7AB0D5FDD772}"/>
-    <hyperlink ref="N42" r:id="rId8" xr:uid="{6833F7B6-00F8-428F-BC47-E375ACD9E16B}"/>
-    <hyperlink ref="N43" r:id="rId9" xr:uid="{D1373D71-5757-435F-881D-E2EC7585BF5E}"/>
-    <hyperlink ref="N45" r:id="rId10" xr:uid="{17FF3BFE-7DA3-44F3-BA70-0DBB37CB212A}"/>
+    <hyperlink ref="I42" r:id="rId7" xr:uid="{92A7E8D7-B0FB-4FEE-B36F-7AB0D5FDD772}"/>
+    <hyperlink ref="N41" r:id="rId8" xr:uid="{6833F7B6-00F8-428F-BC47-E375ACD9E16B}"/>
+    <hyperlink ref="N42" r:id="rId9" xr:uid="{D1373D71-5757-435F-881D-E2EC7585BF5E}"/>
+    <hyperlink ref="N44" r:id="rId10" xr:uid="{17FF3BFE-7DA3-44F3-BA70-0DBB37CB212A}"/>
     <hyperlink ref="N8" r:id="rId11" xr:uid="{18EC1B70-AF2A-4CA3-87E8-39F179B0687F}"/>
     <hyperlink ref="N5" r:id="rId12" xr:uid="{08C0BFB0-4C36-4144-BFBD-89C650109DB0}"/>
     <hyperlink ref="N6" r:id="rId13" xr:uid="{FD5BC7C6-AE36-4994-B742-61BDE3857444}"/>
@@ -10214,10 +10171,10 @@
     <hyperlink ref="N4" r:id="rId19" xr:uid="{5F9DA8BE-8532-4287-AD59-110CB070DD44}"/>
     <hyperlink ref="N15" r:id="rId20" xr:uid="{329CE7B8-0443-4309-9F8F-1CAC99721915}"/>
     <hyperlink ref="N19" r:id="rId21" xr:uid="{AC38D90A-68AB-4B47-A26E-4B8C6ED8E8CA}"/>
-    <hyperlink ref="N46" r:id="rId22" location="role" xr:uid="{7B6F42B7-87A3-4EDF-8B38-D9D32A16F033}"/>
-    <hyperlink ref="N50" r:id="rId23" xr:uid="{8A3B41F7-DA1E-F848-A85E-D96217D5FB44}"/>
-    <hyperlink ref="N51" r:id="rId24" xr:uid="{13C9631A-0105-F942-8B12-D40B3489066F}"/>
-    <hyperlink ref="N49" r:id="rId25" xr:uid="{8FDE5258-7DE6-F24B-8296-EA4230387E50}"/>
+    <hyperlink ref="N45" r:id="rId22" location="role" xr:uid="{7B6F42B7-87A3-4EDF-8B38-D9D32A16F033}"/>
+    <hyperlink ref="N49" r:id="rId23" xr:uid="{8A3B41F7-DA1E-F848-A85E-D96217D5FB44}"/>
+    <hyperlink ref="N50" r:id="rId24" xr:uid="{13C9631A-0105-F942-8B12-D40B3489066F}"/>
+    <hyperlink ref="N48" r:id="rId25" xr:uid="{8FDE5258-7DE6-F24B-8296-EA4230387E50}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -10227,7 +10184,7 @@
           <x14:formula1>
             <xm:f>components!$A$2:$A$99</xm:f>
           </x14:formula1>
-          <xm:sqref>G84:G1048576 G2:G48 G52:G80 G82</xm:sqref>
+          <xm:sqref>G83:G1048576 G51:G79 G81 G2:G47</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -10404,10 +10361,10 @@
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10415,11 +10372,11 @@
     <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="18.6640625" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.5" customWidth="1"/>
     <col min="6" max="6" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>268</v>
       </c>
@@ -10435,11 +10392,8 @@
       <c r="E1" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -10448,7 +10402,7 @@
         <v>Study</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
@@ -10456,11 +10410,8 @@
       <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>60</v>
       </c>
@@ -10473,7 +10424,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>68</v>
       </c>
@@ -10486,7 +10437,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>90</v>
       </c>
@@ -10499,7 +10450,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>99</v>
       </c>
@@ -10512,9 +10463,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B7" s="2" t="str">
         <f t="shared" si="0"/>
@@ -10525,7 +10476,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>167</v>
       </c>
@@ -10534,13 +10485,13 @@
         <v>Sample</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>195</v>
       </c>
@@ -10549,13 +10500,13 @@
         <v>Specimen</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>203</v>
       </c>
@@ -10564,13 +10515,13 @@
         <v>Image Acquisition</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="119" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>222</v>
       </c>
@@ -10579,13 +10530,13 @@
         <v>Image Analysis</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>220</v>
       </c>
@@ -10594,13 +10545,13 @@
         <v>Image Correlation</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>107</v>
       </c>
@@ -10609,13 +10560,13 @@
         <v>Annotations</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>236</v>
       </c>
@@ -10624,17 +10575,17 @@
         <v>File Level Metadata</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D14" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
       <c r="C15" s="6"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" s="2"/>
       <c r="C16" s="6"/>
     </row>
@@ -10687,7 +10638,7 @@
         <v>268</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -10723,32 +10674,32 @@
         <v>9</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>285</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>288</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="C3" s="11" t="s">
         <v>291</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10756,247 +10707,247 @@
         <v>151</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>293</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="C5" s="11" t="s">
         <v>296</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="C6" s="11" t="s">
         <v>299</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="C7" s="11" t="s">
         <v>302</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>304</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>305</v>
       </c>
       <c r="C8" s="11"/>
     </row>
     <row r="9" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>306</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>307</v>
       </c>
       <c r="C9" s="11"/>
     </row>
     <row r="10" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>308</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>309</v>
       </c>
       <c r="C10" s="11"/>
     </row>
     <row r="11" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="C11" s="11" t="s">
         <v>311</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>313</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>314</v>
       </c>
       <c r="C12" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="C13" s="11" t="s">
         <v>316</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="C14" s="11" t="s">
         <v>319</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="C15" s="11" t="s">
         <v>322</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="C16" s="11" t="s">
         <v>325</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="C17" s="11" t="s">
         <v>328</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="C18" s="11" t="s">
         <v>331</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="B19" s="10" t="s">
         <v>333</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>334</v>
       </c>
       <c r="C19" s="11"/>
     </row>
     <row r="20" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="B20" s="10" t="s">
         <v>335</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>336</v>
       </c>
       <c r="C20" s="11"/>
     </row>
     <row r="21" spans="1:3" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="B21" s="10" t="s">
         <v>337</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>338</v>
       </c>
       <c r="C21" s="11"/>
     </row>
     <row r="22" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>339</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>340</v>
       </c>
       <c r="C22" s="11"/>
     </row>
     <row r="23" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="C23" s="11" t="s">
         <v>342</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="B24" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="C24" s="11" t="s">
         <v>345</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="B25" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="C25" s="11" t="s">
         <v>348</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="B26" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="C26" s="11" t="s">
         <v>351</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="B27" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="C27" s="11" t="s">
         <v>354</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11004,65 +10955,65 @@
         <v>35</v>
       </c>
       <c r="B28" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="C28" s="11" t="s">
         <v>356</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="B29" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="C29" s="11" t="s">
         <v>359</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="B30" s="10" t="s">
         <v>361</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="C30" s="11" t="s">
         <v>362</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="B31" s="10" t="s">
         <v>364</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="C31" s="11" t="s">
         <v>365</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="B32" s="10" t="s">
         <v>367</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="C32" s="11" t="s">
         <v>368</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="B33" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="C33" s="11" t="s">
         <v>371</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.2">
@@ -11070,38 +11021,38 @@
         <v>156</v>
       </c>
       <c r="B34" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="C34" s="13" t="s">
         <v>373</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="B35" s="12" t="s">
         <v>375</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="C35" s="13" t="s">
         <v>376</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="B36" s="12" t="s">
         <v>378</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>379</v>
       </c>
       <c r="C36" s="13"/>
     </row>
     <row r="37" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="B37" s="10" t="s">
         <v>380</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>381</v>
       </c>
       <c r="C37" s="11"/>
     </row>
@@ -11110,7 +11061,7 @@
         <v>141</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C38" s="13"/>
     </row>
@@ -11119,178 +11070,178 @@
         <v>145</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C39" s="11"/>
     </row>
     <row r="40" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="B40" s="10" t="s">
         <v>384</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>385</v>
       </c>
       <c r="C40" s="11"/>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="B41" s="10" t="s">
         <v>386</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>387</v>
       </c>
       <c r="C41" s="11"/>
     </row>
     <row r="42" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="B42" s="12" t="s">
         <v>388</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>389</v>
       </c>
       <c r="C42" s="13"/>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="B43" s="10" t="s">
         <v>390</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>391</v>
       </c>
       <c r="C43" s="11"/>
     </row>
     <row r="44" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="B44" s="10" t="s">
         <v>392</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>393</v>
       </c>
       <c r="C44" s="11"/>
     </row>
     <row r="45" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="B45" s="10" t="s">
         <v>394</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>395</v>
       </c>
       <c r="C45" s="11"/>
     </row>
     <row r="46" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="B46" s="10" t="s">
         <v>396</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>397</v>
       </c>
       <c r="C46" s="11"/>
     </row>
     <row r="47" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="B47" s="12" t="s">
         <v>398</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>399</v>
       </c>
       <c r="C47" s="13"/>
     </row>
     <row r="48" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="B48" s="10" t="s">
         <v>400</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>401</v>
       </c>
       <c r="C48" s="11"/>
     </row>
     <row r="49" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="B49" s="10" t="s">
         <v>402</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>403</v>
       </c>
       <c r="C49" s="11"/>
     </row>
     <row r="50" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="B50" s="12" t="s">
         <v>404</v>
-      </c>
-      <c r="B50" s="12" t="s">
-        <v>405</v>
       </c>
       <c r="C50" s="13"/>
     </row>
     <row r="51" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="B51" s="12" t="s">
         <v>406</v>
-      </c>
-      <c r="B51" s="12" t="s">
-        <v>407</v>
       </c>
       <c r="C51" s="13"/>
     </row>
     <row r="52" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="B52" s="10" t="s">
         <v>408</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>409</v>
       </c>
       <c r="C52" s="11"/>
     </row>
     <row r="53" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="12" t="s">
+        <v>409</v>
+      </c>
+      <c r="B53" s="12" t="s">
         <v>410</v>
-      </c>
-      <c r="B53" s="12" t="s">
-        <v>411</v>
       </c>
       <c r="C53" s="13"/>
     </row>
     <row r="54" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="B54" s="10" t="s">
         <v>412</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>413</v>
       </c>
       <c r="C54" s="11"/>
     </row>
     <row r="55" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="B55" s="12" t="s">
         <v>414</v>
-      </c>
-      <c r="B55" s="12" t="s">
-        <v>415</v>
       </c>
       <c r="C55" s="13"/>
     </row>
     <row r="56" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="B56" s="12" t="s">
         <v>416</v>
-      </c>
-      <c r="B56" s="12" t="s">
-        <v>417</v>
       </c>
       <c r="C56" s="13"/>
     </row>
     <row r="57" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="B57" s="12" t="s">
         <v>418</v>
-      </c>
-      <c r="B57" s="12" t="s">
-        <v>419</v>
       </c>
       <c r="C57" s="13"/>
     </row>
     <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="B58" s="10" t="s">
         <v>420</v>
-      </c>
-      <c r="B58" s="10" t="s">
-        <v>421</v>
       </c>
       <c r="C58" s="11"/>
     </row>
@@ -11325,7 +11276,7 @@
         <v>103</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -11333,7 +11284,7 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C2">
         <v>1.5</v>
@@ -11400,7 +11351,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">

--- a/images/image_schema_main_v0.1.xlsx
+++ b/images/image_schema_main_v0.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/providen/Documents/EI/Projects/COPO-schemas/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D413AC3D-A388-C448-8003-33465670CCBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74FC5D95-1291-6243-8B48-91173B01EFC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35480" yWindow="-2600" windowWidth="33160" windowHeight="21400" activeTab="3" xr2:uid="{7BD8D0E6-E1F4-E04F-9790-31602B31B6DB}"/>
+    <workbookView xWindow="35480" yWindow="-2600" windowWidth="33160" windowHeight="21400" xr2:uid="{7BD8D0E6-E1F4-E04F-9790-31602B31B6DB}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$O$31</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">regex_to_formula!$A$1:$C$53</definedName>
-    <definedName name="COMPONENT_NAME">data!$A$24:$A$5010</definedName>
+    <definedName name="COMPONENT_NAME">data!$A$24:$A$5009</definedName>
     <definedName name="Z_D34CFE6F_6B19_C846_A6A5_7A3E0DEDB173_.wvu.FilterData" localSheetId="0" hidden="1">data!$A$1:$O$78</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="456">
   <si>
     <t>component_name</t>
   </si>
@@ -774,9 +774,6 @@
   </si>
   <si>
     <t>file123.png</t>
-  </si>
-  <si>
-    <t>file</t>
   </si>
   <si>
     <t>transformations</t>
@@ -1483,15 +1480,6 @@
     <t>file_id</t>
   </si>
   <si>
-    <t>file_name</t>
-  </si>
-  <si>
-    <t>File Name</t>
-  </si>
-  <si>
-    <t>A filename or file name is a name used to uniquely identify a data file related to the study.</t>
-  </si>
-  <si>
     <t xml:space="preserve">A unique alphanumeric identifier for this file </t>
   </si>
   <si>
@@ -1499,9 +1487,6 @@
   </si>
   <si>
     <t>Only letters and numbers allowed. No spaces or special characters.</t>
-  </si>
-  <si>
-    <t>file001.png</t>
   </si>
   <si>
     <t>Study ID</t>
@@ -2205,7 +2190,7 @@
 <file path=xl/namedSheetViews/namedSheetView1.xml><?xml version="1.0" encoding="utf-8"?>
 <namedSheetViews xmlns="http://schemas.microsoft.com/office/spreadsheetml/2019/namedsheetviews" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <namedSheetView name="View1" id="{6954CA39-3A4A-425E-8D74-F55DAFA5B207}">
-    <nsvFilter filterId="{545CA0C1-0282-3A43-9C60-512DE414A571}" ref="A1:O697" tableId="0"/>
+    <nsvFilter filterId="{545CA0C1-0282-3A43-9C60-512DE414A571}" ref="A1:O696" tableId="0"/>
   </namedSheetView>
 </namedSheetViews>
 </file>
@@ -2530,11 +2515,11 @@
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:P697"/>
+  <dimension ref="A1:P696"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C31" sqref="C31"/>
+      <selection pane="topRight" activeCell="A82" sqref="A82:XFD82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2671,7 +2656,7 @@
         <v>27</v>
       </c>
       <c r="K3" s="43" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="L3" s="38" t="s">
         <v>20</v>
@@ -2713,7 +2698,7 @@
         <v>27</v>
       </c>
       <c r="K4" s="43" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>20</v>
@@ -3484,7 +3469,7 @@
         <v>17</v>
       </c>
       <c r="D24" s="67" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="E24" s="67"/>
       <c r="F24" s="68" t="b">
@@ -3941,7 +3926,7 @@
     </row>
     <row r="37" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="33" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B37" s="33" t="s">
         <v>16</v>
@@ -3981,13 +3966,13 @@
     </row>
     <row r="38" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D38" s="2" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C38, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
@@ -4017,7 +4002,7 @@
     </row>
     <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>16</v>
@@ -4058,16 +4043,16 @@
     </row>
     <row r="40" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B40" s="64" t="s">
         <v>424</v>
       </c>
-      <c r="B40" s="64" t="s">
+      <c r="C40" s="64" t="s">
         <v>425</v>
       </c>
-      <c r="C40" s="64" t="s">
-        <v>426</v>
-      </c>
       <c r="D40" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F40" s="1" t="b">
         <v>0</v>
@@ -4097,16 +4082,16 @@
     </row>
     <row r="41" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B41" s="64" t="s">
         <v>424</v>
       </c>
-      <c r="B41" s="64" t="s">
-        <v>425</v>
-      </c>
       <c r="C41" s="64" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F41" s="1" t="b">
         <v>0</v>
@@ -4136,7 +4121,7 @@
     </row>
     <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>23</v>
@@ -4175,7 +4160,7 @@
     </row>
     <row r="43" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>23</v>
@@ -4215,7 +4200,7 @@
     </row>
     <row r="44" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>23</v>
@@ -4252,7 +4237,7 @@
     </row>
     <row r="45" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>23</v>
@@ -4336,7 +4321,7 @@
         <v>16</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>168</v>
@@ -4371,34 +4356,34 @@
         <v>16</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>440</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>441</v>
       </c>
       <c r="F48" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H48" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="I48" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="I48" s="2" t="s">
+      <c r="J48" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="K48" s="2" t="s">
         <v>443</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>444</v>
       </c>
       <c r="L48" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N48" s="59" t="s">
         <v>171</v>
@@ -4415,37 +4400,37 @@
         <v>16</v>
       </c>
       <c r="C49" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="D49" s="26" t="s">
         <v>433</v>
       </c>
-      <c r="D49" s="26" t="s">
-        <v>434</v>
-      </c>
       <c r="E49" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F49" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I49" s="2">
         <v>8036</v>
       </c>
       <c r="J49" s="33" t="s">
+        <v>435</v>
+      </c>
+      <c r="K49" s="2" t="s">
         <v>436</v>
-      </c>
-      <c r="K49" s="2" t="s">
-        <v>437</v>
       </c>
       <c r="L49" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M49" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="N49" s="59" t="s">
         <v>438</v>
-      </c>
-      <c r="N49" s="59" t="s">
-        <v>439</v>
       </c>
       <c r="O49" s="65" t="s">
         <v>22</v>
@@ -4576,7 +4561,7 @@
         <v>Description</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F53" s="1" t="b">
         <v>0</v>
@@ -4795,7 +4780,7 @@
         <v>16</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>168</v>
@@ -5356,7 +5341,7 @@
         <v>16</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D74" s="2" t="str">
         <f t="shared" ref="D74" si="12">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C74, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
@@ -5366,10 +5351,10 @@
         <v>1</v>
       </c>
       <c r="H74" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="I74" s="2" t="s">
         <v>447</v>
-      </c>
-      <c r="I74" s="2" t="s">
-        <v>448</v>
       </c>
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
@@ -5574,7 +5559,7 @@
         <v>16</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>237</v>
@@ -5583,16 +5568,16 @@
         <v>1</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="L80" s="2" t="s">
         <v>20</v>
@@ -5648,32 +5633,38 @@
         <v>236</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>453</v>
+        <v>108</v>
+      </c>
+      <c r="D82" s="2" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C82, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
+        <v>Annotation ID</v>
       </c>
       <c r="F82" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H82" s="2" t="s">
-        <v>454</v>
+      <c r="G82" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H82" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>458</v>
+        <v>110</v>
       </c>
       <c r="J82" s="2"/>
-      <c r="K82" s="2"/>
+      <c r="K82" s="2" t="s">
+        <v>111</v>
+      </c>
       <c r="L82" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="N82" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="N82" s="53"/>
       <c r="O82" s="55" t="s">
         <v>22</v>
       </c>
@@ -5686,28 +5677,22 @@
         <v>23</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D83" s="2" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C83, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
-        <v>Annotation ID</v>
+        <v>239</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>448</v>
       </c>
       <c r="F83" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G83" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H83" s="6" t="s">
-        <v>109</v>
+      <c r="H83" s="2" t="s">
+        <v>449</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>110</v>
+        <v>240</v>
       </c>
       <c r="J83" s="2"/>
-      <c r="K83" s="2" t="s">
-        <v>111</v>
-      </c>
+      <c r="K83" s="2"/>
       <c r="L83" s="2" t="s">
         <v>20</v>
       </c>
@@ -5715,7 +5700,7 @@
         <v>21</v>
       </c>
       <c r="N83" s="53"/>
-      <c r="O83" s="55" t="s">
+      <c r="O83" s="41" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5727,22 +5712,25 @@
         <v>23</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>449</v>
+        <v>241</v>
+      </c>
+      <c r="D84" s="2" t="str">
+        <f t="shared" ref="D84:D139" si="13">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C84, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
+        <v>Transformations</v>
       </c>
       <c r="F84" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>450</v>
+        <v>242</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="J84" s="2"/>
-      <c r="K84" s="2"/>
+      <c r="K84" s="56" t="s">
+        <v>244</v>
+      </c>
       <c r="L84" s="2" t="s">
         <v>20</v>
       </c>
@@ -5751,7 +5739,7 @@
       </c>
       <c r="N84" s="53"/>
       <c r="O84" s="41" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
     </row>
     <row r="85" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5761,25 +5749,21 @@
       <c r="B85" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>242</v>
+      <c r="C85" t="s">
+        <v>245</v>
       </c>
       <c r="D85" s="2" t="str">
-        <f t="shared" ref="D85:D140" si="13">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C85, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
-        <v>Transformations</v>
+        <f t="shared" si="13"/>
+        <v>Spatial Information</v>
       </c>
       <c r="F85" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H85" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="I85" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="J85" s="2"/>
-      <c r="K85" s="56" t="s">
-        <v>245</v>
+      <c r="H85" t="s">
+        <v>246</v>
+      </c>
+      <c r="I85" t="s">
+        <v>247</v>
       </c>
       <c r="L85" s="2" t="s">
         <v>20</v>
@@ -5787,7 +5771,6 @@
       <c r="M85" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N85" s="53"/>
       <c r="O85" s="41" t="s">
         <v>47</v>
       </c>
@@ -5800,20 +5783,26 @@
         <v>23</v>
       </c>
       <c r="C86" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D86" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>Spatial Information</v>
+        <v>Annotation Creation Time</v>
       </c>
       <c r="F86" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="I86" t="s">
-        <v>248</v>
+        <v>250</v>
+      </c>
+      <c r="J86" t="s">
+        <v>251</v>
+      </c>
+      <c r="K86" s="63" t="s">
+        <v>252</v>
       </c>
       <c r="L86" s="2" t="s">
         <v>20</v>
@@ -5826,43 +5815,13 @@
       </c>
     </row>
     <row r="87" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C87" t="s">
-        <v>249</v>
-      </c>
+      <c r="A87" s="4"/>
+      <c r="B87" s="2"/>
       <c r="D87" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>Annotation Creation Time</v>
-      </c>
-      <c r="F87" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="s">
-        <v>250</v>
-      </c>
-      <c r="I87" t="s">
-        <v>251</v>
-      </c>
-      <c r="J87" t="s">
-        <v>252</v>
-      </c>
-      <c r="K87" s="63" t="s">
-        <v>253</v>
-      </c>
-      <c r="L87" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M87" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O87" s="41" t="s">
-        <v>47</v>
-      </c>
+        <v/>
+      </c>
+      <c r="H87"/>
     </row>
     <row r="88" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4"/>
@@ -5874,8 +5833,6 @@
       <c r="H88"/>
     </row>
     <row r="89" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="4"/>
-      <c r="B89" s="2"/>
       <c r="D89" s="2" t="str">
         <f t="shared" si="13"/>
         <v/>
@@ -6234,14 +6191,14 @@
     </row>
     <row r="140" spans="4:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D140" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="D140:D203" si="14">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C140, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
         <v/>
       </c>
       <c r="H140"/>
     </row>
     <row r="141" spans="4:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D141" s="2" t="str">
-        <f t="shared" ref="D141:D204" si="14">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C141, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="H141"/>
@@ -6682,14 +6639,14 @@
     </row>
     <row r="204" spans="4:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D204" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="D204:D267" si="15">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C204, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
         <v/>
       </c>
       <c r="H204"/>
     </row>
     <row r="205" spans="4:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D205" s="2" t="str">
-        <f t="shared" ref="D205:D268" si="15">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C205, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H205"/>
@@ -7130,14 +7087,14 @@
     </row>
     <row r="268" spans="4:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D268" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="D268:D331" si="16">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C268, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
         <v/>
       </c>
       <c r="H268"/>
     </row>
     <row r="269" spans="4:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D269" s="2" t="str">
-        <f t="shared" ref="D269:D332" si="16">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C269, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="H269"/>
@@ -7578,14 +7535,14 @@
     </row>
     <row r="332" spans="4:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D332" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="D332:D395" si="17">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C332, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
         <v/>
       </c>
       <c r="H332"/>
     </row>
     <row r="333" spans="4:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D333" s="2" t="str">
-        <f t="shared" ref="D333:D396" si="17">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C333, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="H333"/>
@@ -8026,14 +7983,14 @@
     </row>
     <row r="396" spans="4:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D396" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="D396:D459" si="18">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C396, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
         <v/>
       </c>
       <c r="H396"/>
     </row>
     <row r="397" spans="4:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D397" s="2" t="str">
-        <f t="shared" ref="D397:D460" si="18">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C397, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="H397"/>
@@ -8474,14 +8431,14 @@
     </row>
     <row r="460" spans="4:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D460" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="D460:D523" si="19">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C460, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
         <v/>
       </c>
       <c r="H460"/>
     </row>
     <row r="461" spans="4:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D461" s="2" t="str">
-        <f t="shared" ref="D461:D524" si="19">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C461, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="H461"/>
@@ -8922,14 +8879,14 @@
     </row>
     <row r="524" spans="4:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D524" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="D524:D587" si="20">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C524, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
         <v/>
       </c>
       <c r="H524"/>
     </row>
     <row r="525" spans="4:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D525" s="2" t="str">
-        <f t="shared" ref="D525:D588" si="20">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C525, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="H525"/>
@@ -9370,14 +9327,14 @@
     </row>
     <row r="588" spans="4:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D588" s="2" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="D588:D651" si="21">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C588, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
         <v/>
       </c>
       <c r="H588"/>
     </row>
     <row r="589" spans="4:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D589" s="2" t="str">
-        <f t="shared" ref="D589:D652" si="21">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C589, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="H589"/>
@@ -9818,14 +9775,14 @@
     </row>
     <row r="652" spans="4:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D652" s="2" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="D652:D696" si="22">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C652, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
         <v/>
       </c>
       <c r="H652"/>
     </row>
     <row r="653" spans="4:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D653" s="2" t="str">
-        <f t="shared" ref="D653:D697" si="22">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(PROPER(SUBSTITUTE(C653, "_", " ")), " Id", " ID"), " Or", " or"), " And", " and")</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="H653"/>
@@ -10131,21 +10088,14 @@
       </c>
       <c r="H696"/>
     </row>
-    <row r="697" spans="4:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D697" s="2" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="H697"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:O697" xr:uid="{545CA0C1-0282-3A43-9C60-512DE414A571}"/>
+  <autoFilter ref="A1:O696" xr:uid="{545CA0C1-0282-3A43-9C60-512DE414A571}"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F83:F1048576 F51:F79 F81 F11:F47" xr:uid="{CEA3A6B4-9E1E-4CF7-B7FA-77AD4F6AA7AC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F82:F1048576 F51:F79 F81 F11:F47" xr:uid="{CEA3A6B4-9E1E-4CF7-B7FA-77AD4F6AA7AC}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C10 O49:O50 D51:D1048576 D2:D47" xr:uid="{D3C8CE10-E7EB-B24A-855C-B8189CB5A06C}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O50:O1048576 O2:O48" xr:uid="{9D0E69DF-5FA3-40DF-B082-58904B05C949}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C10 O49:O50 D2:D47 D51:D1048576" xr:uid="{D3C8CE10-E7EB-B24A-855C-B8189CB5A06C}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O48 O50:O1048576" xr:uid="{9D0E69DF-5FA3-40DF-B082-58904B05C949}">
       <formula1>"M,O"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10184,7 +10134,7 @@
           <x14:formula1>
             <xm:f>components!$A$2:$A$99</xm:f>
           </x14:formula1>
-          <xm:sqref>G83:G1048576 G51:G79 G81 G2:G47</xm:sqref>
+          <xm:sqref>G82:G1048576 G51:G79 G81 G2:G47</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -10221,40 +10171,40 @@
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
+        <v>253</v>
+      </c>
+      <c r="B2" s="26" t="s">
         <v>254</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>255</v>
       </c>
       <c r="C2"/>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="B3" s="26" t="s">
         <v>256</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="27" t="s">
+        <v>257</v>
+      </c>
+      <c r="B4" s="26" t="s">
         <v>258</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
+        <v>259</v>
+      </c>
+      <c r="B5" s="26" t="s">
         <v>260</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="27" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B6" s="26" t="s">
         <v>122</v>
@@ -10265,7 +10215,7 @@
         <v>44</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10275,22 +10225,22 @@
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="26" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="26" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="26" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -10322,7 +10272,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>103</v>
@@ -10331,10 +10281,10 @@
         <v>28</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>269</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -10342,10 +10292,10 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C2" t="s">
         <v>271</v>
-      </c>
-      <c r="C2" t="s">
-        <v>272</v>
       </c>
       <c r="D2" t="s">
         <v>23</v>
@@ -10363,7 +10313,7 @@
   </sheetPr>
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E2"/>
     </sheetView>
   </sheetViews>
@@ -10378,7 +10328,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>103</v>
@@ -10387,10 +10337,10 @@
         <v>28</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>273</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10402,7 +10352,7 @@
         <v>Study</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
@@ -10465,7 +10415,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B7" s="2" t="str">
         <f t="shared" si="0"/>
@@ -10485,7 +10435,7 @@
         <v>Sample</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -10500,7 +10450,7 @@
         <v>Specimen</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -10515,7 +10465,7 @@
         <v>Image Acquisition</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -10530,7 +10480,7 @@
         <v>Image Analysis</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -10545,7 +10495,7 @@
         <v>Image Correlation</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D12" t="s">
         <v>47</v>
@@ -10560,7 +10510,7 @@
         <v>Annotations</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D13" t="s">
         <v>47</v>
@@ -10575,7 +10525,7 @@
         <v>File Level Metadata</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D14" t="s">
         <v>47</v>
@@ -10635,10 +10585,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -10674,32 +10624,32 @@
         <v>9</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>284</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>287</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="C3" s="11" t="s">
         <v>290</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10707,247 +10657,247 @@
         <v>151</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>292</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="C5" s="11" t="s">
         <v>295</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="C6" s="11" t="s">
         <v>298</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="C7" s="11" t="s">
         <v>301</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>303</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>304</v>
       </c>
       <c r="C8" s="11"/>
     </row>
     <row r="9" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>305</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>306</v>
       </c>
       <c r="C9" s="11"/>
     </row>
     <row r="10" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>307</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>308</v>
       </c>
       <c r="C10" s="11"/>
     </row>
     <row r="11" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="C11" s="11" t="s">
         <v>310</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>312</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>313</v>
       </c>
       <c r="C12" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="C13" s="11" t="s">
         <v>315</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="C14" s="11" t="s">
         <v>318</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="C15" s="11" t="s">
         <v>321</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="C16" s="11" t="s">
         <v>324</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="C17" s="11" t="s">
         <v>327</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="C18" s="11" t="s">
         <v>330</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="B19" s="10" t="s">
         <v>332</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>333</v>
       </c>
       <c r="C19" s="11"/>
     </row>
     <row r="20" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="B20" s="10" t="s">
         <v>334</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>335</v>
       </c>
       <c r="C20" s="11"/>
     </row>
     <row r="21" spans="1:3" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="B21" s="10" t="s">
         <v>336</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>337</v>
       </c>
       <c r="C21" s="11"/>
     </row>
     <row r="22" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>338</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>339</v>
       </c>
       <c r="C22" s="11"/>
     </row>
     <row r="23" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="C23" s="11" t="s">
         <v>341</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="B24" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="C24" s="11" t="s">
         <v>344</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="B25" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="C25" s="11" t="s">
         <v>347</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="B26" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="C26" s="11" t="s">
         <v>350</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="B27" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="C27" s="11" t="s">
         <v>353</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10955,65 +10905,65 @@
         <v>35</v>
       </c>
       <c r="B28" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="C28" s="11" t="s">
         <v>355</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="B29" s="10" t="s">
         <v>357</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="C29" s="11" t="s">
         <v>358</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="B30" s="10" t="s">
         <v>360</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="C30" s="11" t="s">
         <v>361</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="B31" s="10" t="s">
         <v>363</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="C31" s="11" t="s">
         <v>364</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="B32" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="C32" s="11" t="s">
         <v>367</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="B33" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="C33" s="11" t="s">
         <v>370</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.2">
@@ -11021,38 +10971,38 @@
         <v>156</v>
       </c>
       <c r="B34" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="C34" s="13" t="s">
         <v>372</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="B35" s="12" t="s">
         <v>374</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="C35" s="13" t="s">
         <v>375</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="B36" s="12" t="s">
         <v>377</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>378</v>
       </c>
       <c r="C36" s="13"/>
     </row>
     <row r="37" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="B37" s="10" t="s">
         <v>379</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>380</v>
       </c>
       <c r="C37" s="11"/>
     </row>
@@ -11061,7 +11011,7 @@
         <v>141</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C38" s="13"/>
     </row>
@@ -11070,178 +11020,178 @@
         <v>145</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C39" s="11"/>
     </row>
     <row r="40" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="B40" s="10" t="s">
         <v>383</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>384</v>
       </c>
       <c r="C40" s="11"/>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="B41" s="10" t="s">
         <v>385</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>386</v>
       </c>
       <c r="C41" s="11"/>
     </row>
     <row r="42" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="B42" s="12" t="s">
         <v>387</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>388</v>
       </c>
       <c r="C42" s="13"/>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="B43" s="10" t="s">
         <v>389</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>390</v>
       </c>
       <c r="C43" s="11"/>
     </row>
     <row r="44" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="B44" s="10" t="s">
         <v>391</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>392</v>
       </c>
       <c r="C44" s="11"/>
     </row>
     <row r="45" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="B45" s="10" t="s">
         <v>393</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>394</v>
       </c>
       <c r="C45" s="11"/>
     </row>
     <row r="46" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="B46" s="10" t="s">
         <v>395</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>396</v>
       </c>
       <c r="C46" s="11"/>
     </row>
     <row r="47" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="B47" s="12" t="s">
         <v>397</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>398</v>
       </c>
       <c r="C47" s="13"/>
     </row>
     <row r="48" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="B48" s="10" t="s">
         <v>399</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>400</v>
       </c>
       <c r="C48" s="11"/>
     </row>
     <row r="49" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="B49" s="10" t="s">
         <v>401</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>402</v>
       </c>
       <c r="C49" s="11"/>
     </row>
     <row r="50" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
+        <v>402</v>
+      </c>
+      <c r="B50" s="12" t="s">
         <v>403</v>
-      </c>
-      <c r="B50" s="12" t="s">
-        <v>404</v>
       </c>
       <c r="C50" s="13"/>
     </row>
     <row r="51" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="12" t="s">
+        <v>404</v>
+      </c>
+      <c r="B51" s="12" t="s">
         <v>405</v>
-      </c>
-      <c r="B51" s="12" t="s">
-        <v>406</v>
       </c>
       <c r="C51" s="13"/>
     </row>
     <row r="52" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="B52" s="10" t="s">
         <v>407</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>408</v>
       </c>
       <c r="C52" s="11"/>
     </row>
     <row r="53" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="B53" s="12" t="s">
         <v>409</v>
-      </c>
-      <c r="B53" s="12" t="s">
-        <v>410</v>
       </c>
       <c r="C53" s="13"/>
     </row>
     <row r="54" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="B54" s="10" t="s">
         <v>411</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>412</v>
       </c>
       <c r="C54" s="11"/>
     </row>
     <row r="55" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="B55" s="12" t="s">
         <v>413</v>
-      </c>
-      <c r="B55" s="12" t="s">
-        <v>414</v>
       </c>
       <c r="C55" s="13"/>
     </row>
     <row r="56" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="B56" s="12" t="s">
         <v>415</v>
-      </c>
-      <c r="B56" s="12" t="s">
-        <v>416</v>
       </c>
       <c r="C56" s="13"/>
     </row>
     <row r="57" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="B57" s="12" t="s">
         <v>417</v>
-      </c>
-      <c r="B57" s="12" t="s">
-        <v>418</v>
       </c>
       <c r="C57" s="13"/>
     </row>
     <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="B58" s="10" t="s">
         <v>419</v>
-      </c>
-      <c r="B58" s="10" t="s">
-        <v>420</v>
       </c>
       <c r="C58" s="11"/>
     </row>
@@ -11270,13 +11220,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>103</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -11284,7 +11234,7 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C2">
         <v>1.5</v>
@@ -11314,7 +11264,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>103</v>
@@ -11351,7 +11301,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">

--- a/images/image_schema_main_v0.1.xlsx
+++ b/images/image_schema_main_v0.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10720"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/providen/Documents/EI/Projects/COPO-schemas/images/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zef22hak/development/COPO-schemas/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74FC5D95-1291-6243-8B48-91173B01EFC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E199BB09-5874-ED41-AAF2-190F9D106673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35480" yWindow="-2600" windowWidth="33160" windowHeight="21400" xr2:uid="{7BD8D0E6-E1F4-E04F-9790-31602B31B6DB}"/>
+    <workbookView xWindow="32820" yWindow="500" windowWidth="33160" windowHeight="21100" xr2:uid="{7BD8D0E6-E1F4-E04F-9790-31602B31B6DB}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="457">
   <si>
     <t>component_name</t>
   </si>
@@ -1493,6 +1493,9 @@
   </si>
   <si>
     <t>Input must be  at least 25 characters.</t>
+  </si>
+  <si>
+    <t>file</t>
   </si>
 </sst>
 </file>
@@ -2518,8 +2521,8 @@
   <dimension ref="A1:P696"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A60" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A82" sqref="A82:XFD82"/>
+      <pane xSplit="3" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M83" sqref="M83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5697,7 +5700,7 @@
         <v>20</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>21</v>
+        <v>456</v>
       </c>
       <c r="N83" s="53"/>
       <c r="O83" s="41" t="s">
